--- a/Corona_database_extract.xlsx
+++ b/Corona_database_extract.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2871"/>
+  <dimension ref="A1:H2906"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81548,6 +81548,1056 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2872">
+      <c r="A2872" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B2872" t="n">
+        <v>95</v>
+      </c>
+      <c r="C2872" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2872" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2872" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2872" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2872" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2872" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2873">
+      <c r="A2873" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B2873" t="n">
+        <v>4319</v>
+      </c>
+      <c r="C2873" t="n">
+        <v>2166</v>
+      </c>
+      <c r="D2873" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2873" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2873" t="n">
+        <v>161</v>
+      </c>
+      <c r="G2873" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2873" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2874">
+      <c r="A2874" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B2874" t="n">
+        <v>6778</v>
+      </c>
+      <c r="C2874" t="n">
+        <v>4644</v>
+      </c>
+      <c r="D2874" t="n">
+        <v>41</v>
+      </c>
+      <c r="E2874" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2874" t="n">
+        <v>128</v>
+      </c>
+      <c r="G2874" t="n">
+        <v>235</v>
+      </c>
+      <c r="H2874" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2875">
+      <c r="A2875" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B2875" t="n">
+        <v>358</v>
+      </c>
+      <c r="C2875" t="n">
+        <v>302</v>
+      </c>
+      <c r="D2875" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2875" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2875" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2875" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2875" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B2876" t="n">
+        <v>1781</v>
+      </c>
+      <c r="C2876" t="n">
+        <v>1036</v>
+      </c>
+      <c r="D2876" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2876" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2876" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2876" t="n">
+        <v>146</v>
+      </c>
+      <c r="H2876" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2877">
+      <c r="A2877" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B2877" t="n">
+        <v>45</v>
+      </c>
+      <c r="C2877" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2877" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2877" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2877" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2877" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2877" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2878">
+      <c r="A2878" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B2878" t="n">
+        <v>44688</v>
+      </c>
+      <c r="C2878" t="n">
+        <v>16500</v>
+      </c>
+      <c r="D2878" t="n">
+        <v>1837</v>
+      </c>
+      <c r="E2878" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2878" t="n">
+        <v>1859</v>
+      </c>
+      <c r="G2878" t="n">
+        <v>73</v>
+      </c>
+      <c r="H2878" t="n">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B2879" t="n">
+        <v>629</v>
+      </c>
+      <c r="C2879" t="n">
+        <v>85</v>
+      </c>
+      <c r="D2879" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2879" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2879" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2879" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2879" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B2880" t="n">
+        <v>24577</v>
+      </c>
+      <c r="C2880" t="n">
+        <v>17082</v>
+      </c>
+      <c r="D2880" t="n">
+        <v>1533</v>
+      </c>
+      <c r="E2880" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2880" t="n">
+        <v>522</v>
+      </c>
+      <c r="G2880" t="n">
+        <v>418</v>
+      </c>
+      <c r="H2880" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2881">
+      <c r="A2881" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B2881" t="n">
+        <v>8272</v>
+      </c>
+      <c r="C2881" t="n">
+        <v>3748</v>
+      </c>
+      <c r="D2881" t="n">
+        <v>118</v>
+      </c>
+      <c r="E2881" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2881" t="n">
+        <v>550</v>
+      </c>
+      <c r="G2881" t="n">
+        <v>183</v>
+      </c>
+      <c r="H2881" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2882">
+      <c r="A2882" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B2882" t="n">
+        <v>44</v>
+      </c>
+      <c r="C2882" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2882" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2882" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2882" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2882" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2882" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2883">
+      <c r="A2883" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B2883" t="n">
+        <v>6841</v>
+      </c>
+      <c r="C2883" t="n">
+        <v>3509</v>
+      </c>
+      <c r="D2883" t="n">
+        <v>88</v>
+      </c>
+      <c r="E2883" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2883" t="n">
+        <v>385</v>
+      </c>
+      <c r="G2883" t="n">
+        <v>193</v>
+      </c>
+      <c r="H2883" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2884">
+      <c r="A2884" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B2884" t="n">
+        <v>560</v>
+      </c>
+      <c r="C2884" t="n">
+        <v>372</v>
+      </c>
+      <c r="D2884" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2884" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2884" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2884" t="n">
+        <v>19</v>
+      </c>
+      <c r="H2884" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2885">
+      <c r="A2885" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B2885" t="n">
+        <v>5298</v>
+      </c>
+      <c r="C2885" t="n">
+        <v>2781</v>
+      </c>
+      <c r="D2885" t="n">
+        <v>63</v>
+      </c>
+      <c r="E2885" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2885" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2885" t="n">
+        <v>177</v>
+      </c>
+      <c r="H2885" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2886">
+      <c r="A2886" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B2886" t="n">
+        <v>1839</v>
+      </c>
+      <c r="C2886" t="n">
+        <v>1121</v>
+      </c>
+      <c r="D2886" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2886" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2886" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2886" t="n">
+        <v>216</v>
+      </c>
+      <c r="H2886" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2887">
+      <c r="A2887" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B2887" t="n">
+        <v>7530</v>
+      </c>
+      <c r="C2887" t="n">
+        <v>4456</v>
+      </c>
+      <c r="D2887" t="n">
+        <v>94</v>
+      </c>
+      <c r="E2887" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2887" t="n">
+        <v>317</v>
+      </c>
+      <c r="G2887" t="n">
+        <v>321</v>
+      </c>
+      <c r="H2887" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2888">
+      <c r="A2888" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B2888" t="n">
+        <v>2622</v>
+      </c>
+      <c r="C2888" t="n">
+        <v>1236</v>
+      </c>
+      <c r="D2888" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2888" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2888" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2888" t="n">
+        <v>61</v>
+      </c>
+      <c r="H2888" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2889">
+      <c r="A2889" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B2889" t="n">
+        <v>649</v>
+      </c>
+      <c r="C2889" t="n">
+        <v>85</v>
+      </c>
+      <c r="D2889" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2889" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2889" t="n">
+        <v>94</v>
+      </c>
+      <c r="G2889" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2889" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2890">
+      <c r="A2890" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B2890" t="n">
+        <v>11083</v>
+      </c>
+      <c r="C2890" t="n">
+        <v>8152</v>
+      </c>
+      <c r="D2890" t="n">
+        <v>476</v>
+      </c>
+      <c r="E2890" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2890" t="n">
+        <v>148</v>
+      </c>
+      <c r="G2890" t="n">
+        <v>249</v>
+      </c>
+      <c r="H2890" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2891">
+      <c r="A2891" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B2891" t="n">
+        <v>113445</v>
+      </c>
+      <c r="C2891" t="n">
+        <v>57851</v>
+      </c>
+      <c r="D2891" t="n">
+        <v>5537</v>
+      </c>
+      <c r="E2891" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2891" t="n">
+        <v>2701</v>
+      </c>
+      <c r="G2891" t="n">
+        <v>1802</v>
+      </c>
+      <c r="H2891" t="n">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="2892">
+      <c r="A2892" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B2892" t="n">
+        <v>500</v>
+      </c>
+      <c r="C2892" t="n">
+        <v>159</v>
+      </c>
+      <c r="D2892" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2892" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2892" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2892" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2892" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2893">
+      <c r="A2893" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B2893" t="n">
+        <v>44</v>
+      </c>
+      <c r="C2893" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2893" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2893" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2893" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2893" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2893" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2894">
+      <c r="A2894" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B2894" t="n">
+        <v>121</v>
+      </c>
+      <c r="C2894" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2894" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2894" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2894" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2894" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2894" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2895">
+      <c r="A2895" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B2895" t="n">
+        <v>179</v>
+      </c>
+      <c r="C2895" t="n">
+        <v>92</v>
+      </c>
+      <c r="D2895" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2895" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2895" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2895" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2895" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2896">
+      <c r="A2896" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B2896" t="n">
+        <v>4163</v>
+      </c>
+      <c r="C2896" t="n">
+        <v>2974</v>
+      </c>
+      <c r="D2896" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2896" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2896" t="n">
+        <v>108</v>
+      </c>
+      <c r="G2896" t="n">
+        <v>120</v>
+      </c>
+      <c r="H2896" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2897">
+      <c r="A2897" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B2897" t="n">
+        <v>216</v>
+      </c>
+      <c r="C2897" t="n">
+        <v>99</v>
+      </c>
+      <c r="D2897" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2897" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2897" t="n">
+        <v>14</v>
+      </c>
+      <c r="G2897" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2897" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2898">
+      <c r="A2898" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B2898" t="n">
+        <v>3371</v>
+      </c>
+      <c r="C2898" t="n">
+        <v>2461</v>
+      </c>
+      <c r="D2898" t="n">
+        <v>72</v>
+      </c>
+      <c r="E2898" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2898" t="n">
+        <v>104</v>
+      </c>
+      <c r="G2898" t="n">
+        <v>18</v>
+      </c>
+      <c r="H2898" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2899">
+      <c r="A2899" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B2899" t="n">
+        <v>13216</v>
+      </c>
+      <c r="C2899" t="n">
+        <v>9849</v>
+      </c>
+      <c r="D2899" t="n">
+        <v>308</v>
+      </c>
+      <c r="E2899" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2899" t="n">
+        <v>235</v>
+      </c>
+      <c r="G2899" t="n">
+        <v>64</v>
+      </c>
+      <c r="H2899" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2900">
+      <c r="A2900" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B2900" t="n">
+        <v>70</v>
+      </c>
+      <c r="C2900" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2900" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2900" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2900" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2900" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2900" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2901">
+      <c r="A2901" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B2901" t="n">
+        <v>48019</v>
+      </c>
+      <c r="C2901" t="n">
+        <v>26782</v>
+      </c>
+      <c r="D2901" t="n">
+        <v>528</v>
+      </c>
+      <c r="E2901" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2901" t="n">
+        <v>1515</v>
+      </c>
+      <c r="G2901" t="n">
+        <v>1438</v>
+      </c>
+      <c r="H2901" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2902">
+      <c r="A2902" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B2902" t="n">
+        <v>5406</v>
+      </c>
+      <c r="C2902" t="n">
+        <v>3027</v>
+      </c>
+      <c r="D2902" t="n">
+        <v>191</v>
+      </c>
+      <c r="E2902" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2902" t="n">
+        <v>213</v>
+      </c>
+      <c r="G2902" t="n">
+        <v>261</v>
+      </c>
+      <c r="H2902" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2903">
+      <c r="A2903" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B2903" t="n">
+        <v>1092</v>
+      </c>
+      <c r="C2903" t="n">
+        <v>433</v>
+      </c>
+      <c r="D2903" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2903" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2903" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2903" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2903" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2904">
+      <c r="A2904" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B2904" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C2904" t="n">
+        <v>1216</v>
+      </c>
+      <c r="D2904" t="n">
+        <v>25</v>
+      </c>
+      <c r="E2904" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2904" t="n">
+        <v>97</v>
+      </c>
+      <c r="G2904" t="n">
+        <v>27</v>
+      </c>
+      <c r="H2904" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="A2905" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B2905" t="n">
+        <v>14091</v>
+      </c>
+      <c r="C2905" t="n">
+        <v>8610</v>
+      </c>
+      <c r="D2905" t="n">
+        <v>417</v>
+      </c>
+      <c r="E2905" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2905" t="n">
+        <v>476</v>
+      </c>
+      <c r="G2905" t="n">
+        <v>342</v>
+      </c>
+      <c r="H2905" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2906">
+      <c r="A2906" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B2906" t="n">
+        <v>11909</v>
+      </c>
+      <c r="C2906" t="n">
+        <v>6028</v>
+      </c>
+      <c r="D2906" t="n">
+        <v>495</v>
+      </c>
+      <c r="E2906" t="inlineStr">
+        <is>
+          <t>17-06-2020</t>
+        </is>
+      </c>
+      <c r="F2906" t="n">
+        <v>415</v>
+      </c>
+      <c r="G2906" t="n">
+        <v>534</v>
+      </c>
+      <c r="H2906" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Corona_database_extract.xlsx
+++ b/Corona_database_extract.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2906"/>
+  <dimension ref="A1:H2941"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82598,6 +82598,1056 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2907">
+      <c r="A2907" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B2907" t="n">
+        <v>45</v>
+      </c>
+      <c r="C2907" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2907" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2907" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2907" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2907" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2907" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B2908" t="n">
+        <v>7961</v>
+      </c>
+      <c r="C2908" t="n">
+        <v>3917</v>
+      </c>
+      <c r="D2908" t="n">
+        <v>96</v>
+      </c>
+      <c r="E2908" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2908" t="n">
+        <v>443</v>
+      </c>
+      <c r="G2908" t="n">
+        <v>128</v>
+      </c>
+      <c r="H2908" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B2909" t="n">
+        <v>103</v>
+      </c>
+      <c r="C2909" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2909" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2909" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2909" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2909" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2909" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B2910" t="n">
+        <v>4904</v>
+      </c>
+      <c r="C2910" t="n">
+        <v>3039</v>
+      </c>
+      <c r="D2910" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2910" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2910" t="n">
+        <v>127</v>
+      </c>
+      <c r="G2910" t="n">
+        <v>385</v>
+      </c>
+      <c r="H2910" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="A2911" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B2911" t="n">
+        <v>7181</v>
+      </c>
+      <c r="C2911" t="n">
+        <v>5098</v>
+      </c>
+      <c r="D2911" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2911" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2911" t="n">
+        <v>156</v>
+      </c>
+      <c r="G2911" t="n">
+        <v>42</v>
+      </c>
+      <c r="H2911" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="A2912" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B2912" t="n">
+        <v>381</v>
+      </c>
+      <c r="C2912" t="n">
+        <v>315</v>
+      </c>
+      <c r="D2912" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2912" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2912" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2912" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2912" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B2913" t="n">
+        <v>2028</v>
+      </c>
+      <c r="C2913" t="n">
+        <v>1331</v>
+      </c>
+      <c r="D2913" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2913" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2913" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2913" t="n">
+        <v>103</v>
+      </c>
+      <c r="H2913" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="A2914" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B2914" t="n">
+        <v>62</v>
+      </c>
+      <c r="C2914" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2914" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2914" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2914" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2914" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2914" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B2915" t="n">
+        <v>53116</v>
+      </c>
+      <c r="C2915" t="n">
+        <v>23569</v>
+      </c>
+      <c r="D2915" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E2915" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2915" t="n">
+        <v>3137</v>
+      </c>
+      <c r="G2915" t="n">
+        <v>2228</v>
+      </c>
+      <c r="H2915" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="A2916" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B2916" t="n">
+        <v>725</v>
+      </c>
+      <c r="C2916" t="n">
+        <v>118</v>
+      </c>
+      <c r="D2916" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2916" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2916" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2916" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2916" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B2917" t="n">
+        <v>26141</v>
+      </c>
+      <c r="C2917" t="n">
+        <v>18159</v>
+      </c>
+      <c r="D2917" t="n">
+        <v>1618</v>
+      </c>
+      <c r="E2917" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2917" t="n">
+        <v>540</v>
+      </c>
+      <c r="G2917" t="n">
+        <v>340</v>
+      </c>
+      <c r="H2917" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2918">
+      <c r="A2918" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B2918" t="n">
+        <v>9743</v>
+      </c>
+      <c r="C2918" t="n">
+        <v>4889</v>
+      </c>
+      <c r="D2918" t="n">
+        <v>144</v>
+      </c>
+      <c r="E2918" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2918" t="n">
+        <v>525</v>
+      </c>
+      <c r="G2918" t="n">
+        <v>333</v>
+      </c>
+      <c r="H2918" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B2919" t="n">
+        <v>619</v>
+      </c>
+      <c r="C2919" t="n">
+        <v>388</v>
+      </c>
+      <c r="D2919" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2919" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2919" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2919" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2919" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2920">
+      <c r="A2920" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B2920" t="n">
+        <v>5680</v>
+      </c>
+      <c r="C2920" t="n">
+        <v>3194</v>
+      </c>
+      <c r="D2920" t="n">
+        <v>75</v>
+      </c>
+      <c r="E2920" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2920" t="n">
+        <v>125</v>
+      </c>
+      <c r="G2920" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2920" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B2921" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C2921" t="n">
+        <v>1332</v>
+      </c>
+      <c r="D2921" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2921" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2921" t="n">
+        <v>45</v>
+      </c>
+      <c r="G2921" t="n">
+        <v>134</v>
+      </c>
+      <c r="H2921" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2922">
+      <c r="A2922" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B2922" t="n">
+        <v>8281</v>
+      </c>
+      <c r="C2922" t="n">
+        <v>5210</v>
+      </c>
+      <c r="D2922" t="n">
+        <v>124</v>
+      </c>
+      <c r="E2922" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2922" t="n">
+        <v>337</v>
+      </c>
+      <c r="G2922" t="n">
+        <v>227</v>
+      </c>
+      <c r="H2922" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="A2923" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B2923" t="n">
+        <v>2912</v>
+      </c>
+      <c r="C2923" t="n">
+        <v>1511</v>
+      </c>
+      <c r="D2923" t="n">
+        <v>21</v>
+      </c>
+      <c r="E2923" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2923" t="n">
+        <v>118</v>
+      </c>
+      <c r="G2923" t="n">
+        <v>96</v>
+      </c>
+      <c r="H2923" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="A2924" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B2924" t="n">
+        <v>744</v>
+      </c>
+      <c r="C2924" t="n">
+        <v>95</v>
+      </c>
+      <c r="D2924" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2924" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2924" t="n">
+        <v>57</v>
+      </c>
+      <c r="G2924" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2924" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="A2925" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B2925" t="n">
+        <v>11582</v>
+      </c>
+      <c r="C2925" t="n">
+        <v>8748</v>
+      </c>
+      <c r="D2925" t="n">
+        <v>495</v>
+      </c>
+      <c r="E2925" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2925" t="n">
+        <v>156</v>
+      </c>
+      <c r="G2925" t="n">
+        <v>116</v>
+      </c>
+      <c r="H2925" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="A2926" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B2926" t="n">
+        <v>124331</v>
+      </c>
+      <c r="C2926" t="n">
+        <v>62773</v>
+      </c>
+      <c r="D2926" t="n">
+        <v>5893</v>
+      </c>
+      <c r="E2926" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2926" t="n">
+        <v>3827</v>
+      </c>
+      <c r="G2926" t="n">
+        <v>1935</v>
+      </c>
+      <c r="H2926" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2927">
+      <c r="A2927" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B2927" t="n">
+        <v>681</v>
+      </c>
+      <c r="C2927" t="n">
+        <v>218</v>
+      </c>
+      <c r="D2927" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2927" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2927" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2927" t="n">
+        <v>19</v>
+      </c>
+      <c r="H2927" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2928">
+      <c r="A2928" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B2928" t="n">
+        <v>44</v>
+      </c>
+      <c r="C2928" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2928" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2928" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2928" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2928" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2928" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="A2929" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B2929" t="n">
+        <v>130</v>
+      </c>
+      <c r="C2929" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2929" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2929" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2929" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2929" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2929" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2930">
+      <c r="A2930" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B2930" t="n">
+        <v>198</v>
+      </c>
+      <c r="C2930" t="n">
+        <v>125</v>
+      </c>
+      <c r="D2930" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2930" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2930" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2930" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2930" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2931">
+      <c r="A2931" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B2931" t="n">
+        <v>4677</v>
+      </c>
+      <c r="C2931" t="n">
+        <v>3297</v>
+      </c>
+      <c r="D2931" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2931" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2931" t="n">
+        <v>165</v>
+      </c>
+      <c r="G2931" t="n">
+        <v>153</v>
+      </c>
+      <c r="H2931" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="A2932" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B2932" t="n">
+        <v>286</v>
+      </c>
+      <c r="C2932" t="n">
+        <v>118</v>
+      </c>
+      <c r="D2932" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2932" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2932" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2932" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2932" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B2933" t="n">
+        <v>3832</v>
+      </c>
+      <c r="C2933" t="n">
+        <v>2636</v>
+      </c>
+      <c r="D2933" t="n">
+        <v>92</v>
+      </c>
+      <c r="E2933" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2933" t="n">
+        <v>217</v>
+      </c>
+      <c r="G2933" t="n">
+        <v>66</v>
+      </c>
+      <c r="H2933" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="A2934" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B2934" t="n">
+        <v>14156</v>
+      </c>
+      <c r="C2934" t="n">
+        <v>10997</v>
+      </c>
+      <c r="D2934" t="n">
+        <v>333</v>
+      </c>
+      <c r="E2934" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2934" t="n">
+        <v>299</v>
+      </c>
+      <c r="G2934" t="n">
+        <v>255</v>
+      </c>
+      <c r="H2934" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2935">
+      <c r="A2935" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B2935" t="n">
+        <v>70</v>
+      </c>
+      <c r="C2935" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2935" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2935" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2935" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2935" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2935" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2936">
+      <c r="A2936" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B2936" t="n">
+        <v>54449</v>
+      </c>
+      <c r="C2936" t="n">
+        <v>30271</v>
+      </c>
+      <c r="D2936" t="n">
+        <v>666</v>
+      </c>
+      <c r="E2936" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2936" t="n">
+        <v>2115</v>
+      </c>
+      <c r="G2936" t="n">
+        <v>1630</v>
+      </c>
+      <c r="H2936" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2937">
+      <c r="A2937" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B2937" t="n">
+        <v>6526</v>
+      </c>
+      <c r="C2937" t="n">
+        <v>3353</v>
+      </c>
+      <c r="D2937" t="n">
+        <v>198</v>
+      </c>
+      <c r="E2937" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2937" t="n">
+        <v>499</v>
+      </c>
+      <c r="G2937" t="n">
+        <v>52</v>
+      </c>
+      <c r="H2937" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2938">
+      <c r="A2938" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B2938" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C2938" t="n">
+        <v>657</v>
+      </c>
+      <c r="D2938" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2938" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2938" t="n">
+        <v>23</v>
+      </c>
+      <c r="G2938" t="n">
+        <v>18</v>
+      </c>
+      <c r="H2938" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2939">
+      <c r="A2939" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B2939" t="n">
+        <v>2177</v>
+      </c>
+      <c r="C2939" t="n">
+        <v>1433</v>
+      </c>
+      <c r="D2939" t="n">
+        <v>26</v>
+      </c>
+      <c r="E2939" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2939" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2939" t="n">
+        <v>47</v>
+      </c>
+      <c r="H2939" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="A2940" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B2940" t="n">
+        <v>15785</v>
+      </c>
+      <c r="C2940" t="n">
+        <v>9638</v>
+      </c>
+      <c r="D2940" t="n">
+        <v>488</v>
+      </c>
+      <c r="E2940" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2940" t="n">
+        <v>604</v>
+      </c>
+      <c r="G2940" t="n">
+        <v>399</v>
+      </c>
+      <c r="H2940" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2941">
+      <c r="A2941" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B2941" t="n">
+        <v>13090</v>
+      </c>
+      <c r="C2941" t="n">
+        <v>7303</v>
+      </c>
+      <c r="D2941" t="n">
+        <v>529</v>
+      </c>
+      <c r="E2941" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2941" t="n">
+        <v>355</v>
+      </c>
+      <c r="G2941" t="n">
+        <v>302</v>
+      </c>
+      <c r="H2941" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Corona_database_extract.xlsx
+++ b/Corona_database_extract.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2941"/>
+  <dimension ref="A1:H3151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83648,6 +83648,6306 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2942">
+      <c r="A2942" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B2942" t="n">
+        <v>45</v>
+      </c>
+      <c r="C2942" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2942" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2942" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2942" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2942" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2942" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="A2943" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B2943" t="n">
+        <v>7961</v>
+      </c>
+      <c r="C2943" t="n">
+        <v>3917</v>
+      </c>
+      <c r="D2943" t="n">
+        <v>96</v>
+      </c>
+      <c r="E2943" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2943" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2943" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2943" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2944">
+      <c r="A2944" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B2944" t="n">
+        <v>103</v>
+      </c>
+      <c r="C2944" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2944" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2944" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2944" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2944" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2944" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2945">
+      <c r="A2945" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B2945" t="n">
+        <v>4904</v>
+      </c>
+      <c r="C2945" t="n">
+        <v>3039</v>
+      </c>
+      <c r="D2945" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2945" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2945" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2945" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2945" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2946">
+      <c r="A2946" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B2946" t="n">
+        <v>7181</v>
+      </c>
+      <c r="C2946" t="n">
+        <v>5098</v>
+      </c>
+      <c r="D2946" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2946" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2946" t="n">
+        <v>156</v>
+      </c>
+      <c r="G2946" t="n">
+        <v>42</v>
+      </c>
+      <c r="H2946" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2947">
+      <c r="A2947" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B2947" t="n">
+        <v>381</v>
+      </c>
+      <c r="C2947" t="n">
+        <v>315</v>
+      </c>
+      <c r="D2947" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2947" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2947" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2947" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2947" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B2948" t="n">
+        <v>2028</v>
+      </c>
+      <c r="C2948" t="n">
+        <v>1331</v>
+      </c>
+      <c r="D2948" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2948" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2948" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2948" t="n">
+        <v>103</v>
+      </c>
+      <c r="H2948" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2949">
+      <c r="A2949" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B2949" t="n">
+        <v>62</v>
+      </c>
+      <c r="C2949" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2949" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2949" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2949" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2949" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2949" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2950">
+      <c r="A2950" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B2950" t="n">
+        <v>53116</v>
+      </c>
+      <c r="C2950" t="n">
+        <v>23569</v>
+      </c>
+      <c r="D2950" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E2950" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2950" t="n">
+        <v>3137</v>
+      </c>
+      <c r="G2950" t="n">
+        <v>2228</v>
+      </c>
+      <c r="H2950" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2951">
+      <c r="A2951" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B2951" t="n">
+        <v>725</v>
+      </c>
+      <c r="C2951" t="n">
+        <v>118</v>
+      </c>
+      <c r="D2951" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2951" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2951" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2951" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2951" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2952">
+      <c r="A2952" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B2952" t="n">
+        <v>26141</v>
+      </c>
+      <c r="C2952" t="n">
+        <v>18159</v>
+      </c>
+      <c r="D2952" t="n">
+        <v>1618</v>
+      </c>
+      <c r="E2952" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2952" t="n">
+        <v>540</v>
+      </c>
+      <c r="G2952" t="n">
+        <v>340</v>
+      </c>
+      <c r="H2952" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2953">
+      <c r="A2953" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B2953" t="n">
+        <v>9743</v>
+      </c>
+      <c r="C2953" t="n">
+        <v>4889</v>
+      </c>
+      <c r="D2953" t="n">
+        <v>144</v>
+      </c>
+      <c r="E2953" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2953" t="n">
+        <v>525</v>
+      </c>
+      <c r="G2953" t="n">
+        <v>333</v>
+      </c>
+      <c r="H2953" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2954">
+      <c r="A2954" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B2954" t="n">
+        <v>619</v>
+      </c>
+      <c r="C2954" t="n">
+        <v>388</v>
+      </c>
+      <c r="D2954" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2954" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2954" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2954" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2954" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2955">
+      <c r="A2955" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B2955" t="n">
+        <v>5680</v>
+      </c>
+      <c r="C2955" t="n">
+        <v>3194</v>
+      </c>
+      <c r="D2955" t="n">
+        <v>75</v>
+      </c>
+      <c r="E2955" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2955" t="n">
+        <v>125</v>
+      </c>
+      <c r="G2955" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2955" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2956">
+      <c r="A2956" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B2956" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C2956" t="n">
+        <v>1332</v>
+      </c>
+      <c r="D2956" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2956" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2956" t="n">
+        <v>45</v>
+      </c>
+      <c r="G2956" t="n">
+        <v>134</v>
+      </c>
+      <c r="H2956" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2957">
+      <c r="A2957" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B2957" t="n">
+        <v>8281</v>
+      </c>
+      <c r="C2957" t="n">
+        <v>5210</v>
+      </c>
+      <c r="D2957" t="n">
+        <v>124</v>
+      </c>
+      <c r="E2957" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2957" t="n">
+        <v>337</v>
+      </c>
+      <c r="G2957" t="n">
+        <v>227</v>
+      </c>
+      <c r="H2957" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2958">
+      <c r="A2958" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B2958" t="n">
+        <v>2912</v>
+      </c>
+      <c r="C2958" t="n">
+        <v>1511</v>
+      </c>
+      <c r="D2958" t="n">
+        <v>21</v>
+      </c>
+      <c r="E2958" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2958" t="n">
+        <v>118</v>
+      </c>
+      <c r="G2958" t="n">
+        <v>96</v>
+      </c>
+      <c r="H2958" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2959">
+      <c r="A2959" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B2959" t="n">
+        <v>744</v>
+      </c>
+      <c r="C2959" t="n">
+        <v>95</v>
+      </c>
+      <c r="D2959" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2959" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2959" t="n">
+        <v>57</v>
+      </c>
+      <c r="G2959" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2959" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2960">
+      <c r="A2960" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B2960" t="n">
+        <v>11582</v>
+      </c>
+      <c r="C2960" t="n">
+        <v>8748</v>
+      </c>
+      <c r="D2960" t="n">
+        <v>495</v>
+      </c>
+      <c r="E2960" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2960" t="n">
+        <v>156</v>
+      </c>
+      <c r="G2960" t="n">
+        <v>116</v>
+      </c>
+      <c r="H2960" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2961">
+      <c r="A2961" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B2961" t="n">
+        <v>124331</v>
+      </c>
+      <c r="C2961" t="n">
+        <v>62773</v>
+      </c>
+      <c r="D2961" t="n">
+        <v>5893</v>
+      </c>
+      <c r="E2961" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2961" t="n">
+        <v>3827</v>
+      </c>
+      <c r="G2961" t="n">
+        <v>1935</v>
+      </c>
+      <c r="H2961" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2962">
+      <c r="A2962" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B2962" t="n">
+        <v>681</v>
+      </c>
+      <c r="C2962" t="n">
+        <v>218</v>
+      </c>
+      <c r="D2962" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2962" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2962" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2962" t="n">
+        <v>19</v>
+      </c>
+      <c r="H2962" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2963">
+      <c r="A2963" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B2963" t="n">
+        <v>44</v>
+      </c>
+      <c r="C2963" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2963" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2963" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2963" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2963" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2963" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2964">
+      <c r="A2964" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B2964" t="n">
+        <v>130</v>
+      </c>
+      <c r="C2964" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2964" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2964" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2964" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2964" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2964" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2965">
+      <c r="A2965" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B2965" t="n">
+        <v>198</v>
+      </c>
+      <c r="C2965" t="n">
+        <v>125</v>
+      </c>
+      <c r="D2965" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2965" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2965" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2965" t="n">
+        <v>22</v>
+      </c>
+      <c r="H2965" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2966">
+      <c r="A2966" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B2966" t="n">
+        <v>4677</v>
+      </c>
+      <c r="C2966" t="n">
+        <v>3297</v>
+      </c>
+      <c r="D2966" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2966" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2966" t="n">
+        <v>165</v>
+      </c>
+      <c r="G2966" t="n">
+        <v>153</v>
+      </c>
+      <c r="H2966" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2967">
+      <c r="A2967" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B2967" t="n">
+        <v>286</v>
+      </c>
+      <c r="C2967" t="n">
+        <v>118</v>
+      </c>
+      <c r="D2967" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2967" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2967" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2967" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2967" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2968">
+      <c r="A2968" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B2968" t="n">
+        <v>3832</v>
+      </c>
+      <c r="C2968" t="n">
+        <v>2636</v>
+      </c>
+      <c r="D2968" t="n">
+        <v>92</v>
+      </c>
+      <c r="E2968" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2968" t="n">
+        <v>217</v>
+      </c>
+      <c r="G2968" t="n">
+        <v>66</v>
+      </c>
+      <c r="H2968" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2969">
+      <c r="A2969" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B2969" t="n">
+        <v>14156</v>
+      </c>
+      <c r="C2969" t="n">
+        <v>10997</v>
+      </c>
+      <c r="D2969" t="n">
+        <v>333</v>
+      </c>
+      <c r="E2969" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2969" t="n">
+        <v>299</v>
+      </c>
+      <c r="G2969" t="n">
+        <v>255</v>
+      </c>
+      <c r="H2969" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2970">
+      <c r="A2970" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B2970" t="n">
+        <v>70</v>
+      </c>
+      <c r="C2970" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2970" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2970" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2970" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2970" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2970" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2971">
+      <c r="A2971" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B2971" t="n">
+        <v>54449</v>
+      </c>
+      <c r="C2971" t="n">
+        <v>30271</v>
+      </c>
+      <c r="D2971" t="n">
+        <v>666</v>
+      </c>
+      <c r="E2971" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2971" t="n">
+        <v>2115</v>
+      </c>
+      <c r="G2971" t="n">
+        <v>1630</v>
+      </c>
+      <c r="H2971" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2972">
+      <c r="A2972" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B2972" t="n">
+        <v>6526</v>
+      </c>
+      <c r="C2972" t="n">
+        <v>3353</v>
+      </c>
+      <c r="D2972" t="n">
+        <v>198</v>
+      </c>
+      <c r="E2972" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2972" t="n">
+        <v>499</v>
+      </c>
+      <c r="G2972" t="n">
+        <v>52</v>
+      </c>
+      <c r="H2972" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2973">
+      <c r="A2973" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B2973" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C2973" t="n">
+        <v>657</v>
+      </c>
+      <c r="D2973" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2973" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2973" t="n">
+        <v>23</v>
+      </c>
+      <c r="G2973" t="n">
+        <v>18</v>
+      </c>
+      <c r="H2973" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2974">
+      <c r="A2974" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B2974" t="n">
+        <v>2177</v>
+      </c>
+      <c r="C2974" t="n">
+        <v>1433</v>
+      </c>
+      <c r="D2974" t="n">
+        <v>26</v>
+      </c>
+      <c r="E2974" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2974" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2974" t="n">
+        <v>47</v>
+      </c>
+      <c r="H2974" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2975">
+      <c r="A2975" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B2975" t="n">
+        <v>15785</v>
+      </c>
+      <c r="C2975" t="n">
+        <v>9638</v>
+      </c>
+      <c r="D2975" t="n">
+        <v>488</v>
+      </c>
+      <c r="E2975" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2975" t="n">
+        <v>604</v>
+      </c>
+      <c r="G2975" t="n">
+        <v>399</v>
+      </c>
+      <c r="H2975" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2976">
+      <c r="A2976" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B2976" t="n">
+        <v>13090</v>
+      </c>
+      <c r="C2976" t="n">
+        <v>7303</v>
+      </c>
+      <c r="D2976" t="n">
+        <v>529</v>
+      </c>
+      <c r="E2976" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2976" t="n">
+        <v>355</v>
+      </c>
+      <c r="G2976" t="n">
+        <v>302</v>
+      </c>
+      <c r="H2976" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2977">
+      <c r="A2977" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B2977" t="n">
+        <v>45</v>
+      </c>
+      <c r="C2977" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2977" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2977" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2977" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2977" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2977" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2978">
+      <c r="A2978" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B2978" t="n">
+        <v>7961</v>
+      </c>
+      <c r="C2978" t="n">
+        <v>3917</v>
+      </c>
+      <c r="D2978" t="n">
+        <v>96</v>
+      </c>
+      <c r="E2978" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2978" t="n">
+        <v>443</v>
+      </c>
+      <c r="G2978" t="n">
+        <v>128</v>
+      </c>
+      <c r="H2978" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2979">
+      <c r="A2979" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B2979" t="n">
+        <v>103</v>
+      </c>
+      <c r="C2979" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2979" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2979" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2979" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2979" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2979" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2980">
+      <c r="A2980" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B2980" t="n">
+        <v>4904</v>
+      </c>
+      <c r="C2980" t="n">
+        <v>3039</v>
+      </c>
+      <c r="D2980" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2980" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2980" t="n">
+        <v>127</v>
+      </c>
+      <c r="G2980" t="n">
+        <v>385</v>
+      </c>
+      <c r="H2980" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2981">
+      <c r="A2981" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B2981" t="n">
+        <v>7181</v>
+      </c>
+      <c r="C2981" t="n">
+        <v>5098</v>
+      </c>
+      <c r="D2981" t="n">
+        <v>50</v>
+      </c>
+      <c r="E2981" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2981" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2981" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2981" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2982">
+      <c r="A2982" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B2982" t="n">
+        <v>381</v>
+      </c>
+      <c r="C2982" t="n">
+        <v>315</v>
+      </c>
+      <c r="D2982" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2982" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2982" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2982" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2982" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2983">
+      <c r="A2983" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B2983" t="n">
+        <v>2028</v>
+      </c>
+      <c r="C2983" t="n">
+        <v>1331</v>
+      </c>
+      <c r="D2983" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2983" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2983" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2983" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2983" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2984">
+      <c r="A2984" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B2984" t="n">
+        <v>62</v>
+      </c>
+      <c r="C2984" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2984" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2984" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2984" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2984" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2984" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2985">
+      <c r="A2985" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B2985" t="n">
+        <v>53116</v>
+      </c>
+      <c r="C2985" t="n">
+        <v>23569</v>
+      </c>
+      <c r="D2985" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E2985" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2985" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2985" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2985" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2986">
+      <c r="A2986" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B2986" t="n">
+        <v>725</v>
+      </c>
+      <c r="C2986" t="n">
+        <v>118</v>
+      </c>
+      <c r="D2986" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2986" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2986" t="n">
+        <v>20</v>
+      </c>
+      <c r="G2986" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2986" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2987">
+      <c r="A2987" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B2987" t="n">
+        <v>26141</v>
+      </c>
+      <c r="C2987" t="n">
+        <v>18159</v>
+      </c>
+      <c r="D2987" t="n">
+        <v>1618</v>
+      </c>
+      <c r="E2987" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2987" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2987" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2987" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2988">
+      <c r="A2988" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B2988" t="n">
+        <v>9743</v>
+      </c>
+      <c r="C2988" t="n">
+        <v>4889</v>
+      </c>
+      <c r="D2988" t="n">
+        <v>144</v>
+      </c>
+      <c r="E2988" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2988" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2988" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2988" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2989">
+      <c r="A2989" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B2989" t="n">
+        <v>5680</v>
+      </c>
+      <c r="C2989" t="n">
+        <v>3194</v>
+      </c>
+      <c r="D2989" t="n">
+        <v>75</v>
+      </c>
+      <c r="E2989" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2989" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2989" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2989" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2990">
+      <c r="A2990" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B2990" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C2990" t="n">
+        <v>1332</v>
+      </c>
+      <c r="D2990" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2990" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2990" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2990" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2990" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2991">
+      <c r="A2991" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B2991" t="n">
+        <v>8281</v>
+      </c>
+      <c r="C2991" t="n">
+        <v>5210</v>
+      </c>
+      <c r="D2991" t="n">
+        <v>124</v>
+      </c>
+      <c r="E2991" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2991" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2991" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2991" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2992">
+      <c r="A2992" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B2992" t="n">
+        <v>2912</v>
+      </c>
+      <c r="C2992" t="n">
+        <v>1511</v>
+      </c>
+      <c r="D2992" t="n">
+        <v>21</v>
+      </c>
+      <c r="E2992" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2992" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2992" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2992" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2993">
+      <c r="A2993" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B2993" t="n">
+        <v>744</v>
+      </c>
+      <c r="C2993" t="n">
+        <v>95</v>
+      </c>
+      <c r="D2993" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2993" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2993" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2993" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2993" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2994">
+      <c r="A2994" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B2994" t="n">
+        <v>11582</v>
+      </c>
+      <c r="C2994" t="n">
+        <v>8748</v>
+      </c>
+      <c r="D2994" t="n">
+        <v>495</v>
+      </c>
+      <c r="E2994" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2994" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2994" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2994" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2995">
+      <c r="A2995" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B2995" t="n">
+        <v>124331</v>
+      </c>
+      <c r="C2995" t="n">
+        <v>62773</v>
+      </c>
+      <c r="D2995" t="n">
+        <v>5893</v>
+      </c>
+      <c r="E2995" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2995" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2995" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2995" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2996">
+      <c r="A2996" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B2996" t="n">
+        <v>681</v>
+      </c>
+      <c r="C2996" t="n">
+        <v>218</v>
+      </c>
+      <c r="D2996" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2996" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2996" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2996" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2996" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2997">
+      <c r="A2997" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B2997" t="n">
+        <v>44</v>
+      </c>
+      <c r="C2997" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2997" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2997" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2997" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2997" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2997" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2998">
+      <c r="A2998" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B2998" t="n">
+        <v>130</v>
+      </c>
+      <c r="C2998" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2998" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2998" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2998" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2998" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2998" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2999">
+      <c r="A2999" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B2999" t="n">
+        <v>198</v>
+      </c>
+      <c r="C2999" t="n">
+        <v>125</v>
+      </c>
+      <c r="D2999" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2999" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F2999" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2999" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2999" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3000">
+      <c r="A3000" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B3000" t="n">
+        <v>4677</v>
+      </c>
+      <c r="C3000" t="n">
+        <v>3297</v>
+      </c>
+      <c r="D3000" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3000" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3000" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3000" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3000" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3001">
+      <c r="A3001" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B3001" t="n">
+        <v>286</v>
+      </c>
+      <c r="C3001" t="n">
+        <v>118</v>
+      </c>
+      <c r="D3001" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3001" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3001" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3001" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3001" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3002">
+      <c r="A3002" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B3002" t="n">
+        <v>3832</v>
+      </c>
+      <c r="C3002" t="n">
+        <v>2636</v>
+      </c>
+      <c r="D3002" t="n">
+        <v>92</v>
+      </c>
+      <c r="E3002" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3002" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3002" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3002" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3003">
+      <c r="A3003" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B3003" t="n">
+        <v>14156</v>
+      </c>
+      <c r="C3003" t="n">
+        <v>10997</v>
+      </c>
+      <c r="D3003" t="n">
+        <v>333</v>
+      </c>
+      <c r="E3003" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3003" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3003" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3003" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3004">
+      <c r="A3004" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B3004" t="n">
+        <v>70</v>
+      </c>
+      <c r="C3004" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3004" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3004" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3004" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3004" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3004" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3005">
+      <c r="A3005" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B3005" t="n">
+        <v>54449</v>
+      </c>
+      <c r="C3005" t="n">
+        <v>30271</v>
+      </c>
+      <c r="D3005" t="n">
+        <v>666</v>
+      </c>
+      <c r="E3005" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3005" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3005" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3005" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3006">
+      <c r="A3006" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B3006" t="n">
+        <v>6526</v>
+      </c>
+      <c r="C3006" t="n">
+        <v>3353</v>
+      </c>
+      <c r="D3006" t="n">
+        <v>198</v>
+      </c>
+      <c r="E3006" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3006" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3006" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3006" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3007">
+      <c r="A3007" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B3007" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C3007" t="n">
+        <v>657</v>
+      </c>
+      <c r="D3007" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3007" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3007" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3007" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3007" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3008">
+      <c r="A3008" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B3008" t="n">
+        <v>2177</v>
+      </c>
+      <c r="C3008" t="n">
+        <v>1433</v>
+      </c>
+      <c r="D3008" t="n">
+        <v>26</v>
+      </c>
+      <c r="E3008" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3008" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3008" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3008" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3009">
+      <c r="A3009" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B3009" t="n">
+        <v>15785</v>
+      </c>
+      <c r="C3009" t="n">
+        <v>9638</v>
+      </c>
+      <c r="D3009" t="n">
+        <v>488</v>
+      </c>
+      <c r="E3009" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3009" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3009" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3009" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3010">
+      <c r="A3010" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B3010" t="n">
+        <v>13090</v>
+      </c>
+      <c r="C3010" t="n">
+        <v>7303</v>
+      </c>
+      <c r="D3010" t="n">
+        <v>529</v>
+      </c>
+      <c r="E3010" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3010" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3010" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3010" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3011">
+      <c r="A3011" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3011" t="n">
+        <v>619</v>
+      </c>
+      <c r="C3011" t="n">
+        <v>388</v>
+      </c>
+      <c r="D3011" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3011" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3011" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3011" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3011" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3012">
+      <c r="A3012" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B3012" t="n">
+        <v>45</v>
+      </c>
+      <c r="C3012" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3012" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3012" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3012" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3012" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3012" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3013">
+      <c r="A3013" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B3013" t="n">
+        <v>7961</v>
+      </c>
+      <c r="C3013" t="n">
+        <v>3917</v>
+      </c>
+      <c r="D3013" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3013" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3013" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3013" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3013" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3014">
+      <c r="A3014" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3014" t="n">
+        <v>103</v>
+      </c>
+      <c r="C3014" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3014" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3014" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3014" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3014" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3014" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3015">
+      <c r="A3015" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B3015" t="n">
+        <v>4904</v>
+      </c>
+      <c r="C3015" t="n">
+        <v>3039</v>
+      </c>
+      <c r="D3015" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3015" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3015" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3015" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3015" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3016">
+      <c r="A3016" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B3016" t="n">
+        <v>7181</v>
+      </c>
+      <c r="C3016" t="n">
+        <v>5098</v>
+      </c>
+      <c r="D3016" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3016" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3016" t="n">
+        <v>156</v>
+      </c>
+      <c r="G3016" t="n">
+        <v>42</v>
+      </c>
+      <c r="H3016" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3017">
+      <c r="A3017" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B3017" t="n">
+        <v>381</v>
+      </c>
+      <c r="C3017" t="n">
+        <v>315</v>
+      </c>
+      <c r="D3017" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3017" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3017" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3017" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3017" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3018">
+      <c r="A3018" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B3018" t="n">
+        <v>2028</v>
+      </c>
+      <c r="C3018" t="n">
+        <v>1331</v>
+      </c>
+      <c r="D3018" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3018" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3018" t="n">
+        <v>82</v>
+      </c>
+      <c r="G3018" t="n">
+        <v>103</v>
+      </c>
+      <c r="H3018" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3019">
+      <c r="A3019" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B3019" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3019" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3019" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3019" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3019" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3019" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3019" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3020">
+      <c r="A3020" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B3020" t="n">
+        <v>53116</v>
+      </c>
+      <c r="C3020" t="n">
+        <v>23569</v>
+      </c>
+      <c r="D3020" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E3020" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3020" t="n">
+        <v>3137</v>
+      </c>
+      <c r="G3020" t="n">
+        <v>2228</v>
+      </c>
+      <c r="H3020" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3021">
+      <c r="A3021" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B3021" t="n">
+        <v>725</v>
+      </c>
+      <c r="C3021" t="n">
+        <v>118</v>
+      </c>
+      <c r="D3021" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3021" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3021" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3021" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3021" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3022">
+      <c r="A3022" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B3022" t="n">
+        <v>26141</v>
+      </c>
+      <c r="C3022" t="n">
+        <v>18159</v>
+      </c>
+      <c r="D3022" t="n">
+        <v>1618</v>
+      </c>
+      <c r="E3022" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3022" t="n">
+        <v>540</v>
+      </c>
+      <c r="G3022" t="n">
+        <v>340</v>
+      </c>
+      <c r="H3022" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3023">
+      <c r="A3023" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B3023" t="n">
+        <v>9743</v>
+      </c>
+      <c r="C3023" t="n">
+        <v>4889</v>
+      </c>
+      <c r="D3023" t="n">
+        <v>144</v>
+      </c>
+      <c r="E3023" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3023" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3023" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3023" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3024">
+      <c r="A3024" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3024" t="n">
+        <v>619</v>
+      </c>
+      <c r="C3024" t="n">
+        <v>388</v>
+      </c>
+      <c r="D3024" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3024" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3024" t="n">
+        <v>24</v>
+      </c>
+      <c r="G3024" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3024" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3025">
+      <c r="A3025" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B3025" t="n">
+        <v>5680</v>
+      </c>
+      <c r="C3025" t="n">
+        <v>3194</v>
+      </c>
+      <c r="D3025" t="n">
+        <v>75</v>
+      </c>
+      <c r="E3025" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3025" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3025" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3025" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3026">
+      <c r="A3026" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B3026" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C3026" t="n">
+        <v>1332</v>
+      </c>
+      <c r="D3026" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3026" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3026" t="n">
+        <v>45</v>
+      </c>
+      <c r="G3026" t="n">
+        <v>134</v>
+      </c>
+      <c r="H3026" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3027">
+      <c r="A3027" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B3027" t="n">
+        <v>8281</v>
+      </c>
+      <c r="C3027" t="n">
+        <v>5210</v>
+      </c>
+      <c r="D3027" t="n">
+        <v>124</v>
+      </c>
+      <c r="E3027" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3027" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3027" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3027" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3028">
+      <c r="A3028" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B3028" t="n">
+        <v>2912</v>
+      </c>
+      <c r="C3028" t="n">
+        <v>1511</v>
+      </c>
+      <c r="D3028" t="n">
+        <v>21</v>
+      </c>
+      <c r="E3028" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3028" t="n">
+        <v>118</v>
+      </c>
+      <c r="G3028" t="n">
+        <v>96</v>
+      </c>
+      <c r="H3028" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3029">
+      <c r="A3029" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B3029" t="n">
+        <v>744</v>
+      </c>
+      <c r="C3029" t="n">
+        <v>95</v>
+      </c>
+      <c r="D3029" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3029" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3029" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3029" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3029" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3030">
+      <c r="A3030" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B3030" t="n">
+        <v>11582</v>
+      </c>
+      <c r="C3030" t="n">
+        <v>8748</v>
+      </c>
+      <c r="D3030" t="n">
+        <v>495</v>
+      </c>
+      <c r="E3030" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3030" t="n">
+        <v>156</v>
+      </c>
+      <c r="G3030" t="n">
+        <v>116</v>
+      </c>
+      <c r="H3030" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3031">
+      <c r="A3031" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B3031" t="n">
+        <v>124331</v>
+      </c>
+      <c r="C3031" t="n">
+        <v>62773</v>
+      </c>
+      <c r="D3031" t="n">
+        <v>5893</v>
+      </c>
+      <c r="E3031" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3031" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3031" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3031" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3032">
+      <c r="A3032" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B3032" t="n">
+        <v>681</v>
+      </c>
+      <c r="C3032" t="n">
+        <v>218</v>
+      </c>
+      <c r="D3032" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3032" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3032" t="n">
+        <v>75</v>
+      </c>
+      <c r="G3032" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3032" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3033">
+      <c r="A3033" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B3033" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3033" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3033" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3033" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3033" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3033" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3033" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3034">
+      <c r="A3034" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B3034" t="n">
+        <v>130</v>
+      </c>
+      <c r="C3034" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3034" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3034" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3034" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3034" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3034" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3035">
+      <c r="A3035" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B3035" t="n">
+        <v>198</v>
+      </c>
+      <c r="C3035" t="n">
+        <v>125</v>
+      </c>
+      <c r="D3035" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3035" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3035" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3035" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3035" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3036">
+      <c r="A3036" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B3036" t="n">
+        <v>4677</v>
+      </c>
+      <c r="C3036" t="n">
+        <v>3297</v>
+      </c>
+      <c r="D3036" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3036" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3036" t="n">
+        <v>165</v>
+      </c>
+      <c r="G3036" t="n">
+        <v>153</v>
+      </c>
+      <c r="H3036" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3037">
+      <c r="A3037" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B3037" t="n">
+        <v>286</v>
+      </c>
+      <c r="C3037" t="n">
+        <v>118</v>
+      </c>
+      <c r="D3037" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3037" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3037" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3037" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3037" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3038">
+      <c r="A3038" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B3038" t="n">
+        <v>3832</v>
+      </c>
+      <c r="C3038" t="n">
+        <v>2636</v>
+      </c>
+      <c r="D3038" t="n">
+        <v>92</v>
+      </c>
+      <c r="E3038" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3038" t="n">
+        <v>217</v>
+      </c>
+      <c r="G3038" t="n">
+        <v>66</v>
+      </c>
+      <c r="H3038" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3039">
+      <c r="A3039" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B3039" t="n">
+        <v>14156</v>
+      </c>
+      <c r="C3039" t="n">
+        <v>10997</v>
+      </c>
+      <c r="D3039" t="n">
+        <v>333</v>
+      </c>
+      <c r="E3039" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3039" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3039" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3039" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3040">
+      <c r="A3040" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B3040" t="n">
+        <v>70</v>
+      </c>
+      <c r="C3040" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3040" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3040" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3040" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3040" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3040" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3041">
+      <c r="A3041" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B3041" t="n">
+        <v>54449</v>
+      </c>
+      <c r="C3041" t="n">
+        <v>30271</v>
+      </c>
+      <c r="D3041" t="n">
+        <v>666</v>
+      </c>
+      <c r="E3041" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3041" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3041" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3041" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3042">
+      <c r="A3042" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B3042" t="n">
+        <v>6526</v>
+      </c>
+      <c r="C3042" t="n">
+        <v>3353</v>
+      </c>
+      <c r="D3042" t="n">
+        <v>198</v>
+      </c>
+      <c r="E3042" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3042" t="n">
+        <v>499</v>
+      </c>
+      <c r="G3042" t="n">
+        <v>52</v>
+      </c>
+      <c r="H3042" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3043">
+      <c r="A3043" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B3043" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C3043" t="n">
+        <v>657</v>
+      </c>
+      <c r="D3043" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3043" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3043" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3043" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3043" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3044">
+      <c r="A3044" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B3044" t="n">
+        <v>2177</v>
+      </c>
+      <c r="C3044" t="n">
+        <v>1433</v>
+      </c>
+      <c r="D3044" t="n">
+        <v>26</v>
+      </c>
+      <c r="E3044" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3044" t="n">
+        <v>75</v>
+      </c>
+      <c r="G3044" t="n">
+        <v>47</v>
+      </c>
+      <c r="H3044" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3045">
+      <c r="A3045" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B3045" t="n">
+        <v>15785</v>
+      </c>
+      <c r="C3045" t="n">
+        <v>9638</v>
+      </c>
+      <c r="D3045" t="n">
+        <v>488</v>
+      </c>
+      <c r="E3045" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3045" t="n">
+        <v>604</v>
+      </c>
+      <c r="G3045" t="n">
+        <v>399</v>
+      </c>
+      <c r="H3045" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3046">
+      <c r="A3046" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B3046" t="n">
+        <v>13090</v>
+      </c>
+      <c r="C3046" t="n">
+        <v>7303</v>
+      </c>
+      <c r="D3046" t="n">
+        <v>529</v>
+      </c>
+      <c r="E3046" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3046" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3046" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3046" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3047">
+      <c r="A3047" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B3047" t="n">
+        <v>45</v>
+      </c>
+      <c r="C3047" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3047" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3047" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3047" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3047" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3047" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3048">
+      <c r="A3048" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B3048" t="n">
+        <v>7961</v>
+      </c>
+      <c r="C3048" t="n">
+        <v>3917</v>
+      </c>
+      <c r="D3048" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3048" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3048" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3048" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3048" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3049">
+      <c r="A3049" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3049" t="n">
+        <v>103</v>
+      </c>
+      <c r="C3049" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3049" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3049" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3049" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3049" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3049" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3050">
+      <c r="A3050" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B3050" t="n">
+        <v>4904</v>
+      </c>
+      <c r="C3050" t="n">
+        <v>3039</v>
+      </c>
+      <c r="D3050" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3050" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3050" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3050" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3050" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3051">
+      <c r="A3051" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B3051" t="n">
+        <v>7181</v>
+      </c>
+      <c r="C3051" t="n">
+        <v>5098</v>
+      </c>
+      <c r="D3051" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3051" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3051" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3051" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3051" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3052">
+      <c r="A3052" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B3052" t="n">
+        <v>381</v>
+      </c>
+      <c r="C3052" t="n">
+        <v>315</v>
+      </c>
+      <c r="D3052" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3052" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3052" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3052" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3052" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3053">
+      <c r="A3053" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B3053" t="n">
+        <v>2028</v>
+      </c>
+      <c r="C3053" t="n">
+        <v>1331</v>
+      </c>
+      <c r="D3053" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3053" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3053" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3053" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3053" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3054">
+      <c r="A3054" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B3054" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3054" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3054" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3054" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3054" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3054" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3054" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3055">
+      <c r="A3055" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B3055" t="n">
+        <v>53116</v>
+      </c>
+      <c r="C3055" t="n">
+        <v>23569</v>
+      </c>
+      <c r="D3055" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E3055" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3055" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3055" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3055" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3056">
+      <c r="A3056" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B3056" t="n">
+        <v>725</v>
+      </c>
+      <c r="C3056" t="n">
+        <v>118</v>
+      </c>
+      <c r="D3056" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3056" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3056" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3056" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3056" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3057">
+      <c r="A3057" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B3057" t="n">
+        <v>26141</v>
+      </c>
+      <c r="C3057" t="n">
+        <v>18159</v>
+      </c>
+      <c r="D3057" t="n">
+        <v>1618</v>
+      </c>
+      <c r="E3057" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3057" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3057" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3057" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3058">
+      <c r="A3058" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B3058" t="n">
+        <v>45</v>
+      </c>
+      <c r="C3058" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3058" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3058" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3058" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3058" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3058" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3059">
+      <c r="A3059" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B3059" t="n">
+        <v>7961</v>
+      </c>
+      <c r="C3059" t="n">
+        <v>3917</v>
+      </c>
+      <c r="D3059" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3059" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3059" t="n">
+        <v>443</v>
+      </c>
+      <c r="G3059" t="n">
+        <v>128</v>
+      </c>
+      <c r="H3059" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3060">
+      <c r="A3060" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3060" t="n">
+        <v>103</v>
+      </c>
+      <c r="C3060" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3060" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3060" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3060" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3060" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3060" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3061">
+      <c r="A3061" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B3061" t="n">
+        <v>4904</v>
+      </c>
+      <c r="C3061" t="n">
+        <v>3039</v>
+      </c>
+      <c r="D3061" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3061" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3061" t="n">
+        <v>127</v>
+      </c>
+      <c r="G3061" t="n">
+        <v>385</v>
+      </c>
+      <c r="H3061" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3062">
+      <c r="A3062" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B3062" t="n">
+        <v>7181</v>
+      </c>
+      <c r="C3062" t="n">
+        <v>5098</v>
+      </c>
+      <c r="D3062" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3062" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3062" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3062" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3062" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3063">
+      <c r="A3063" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B3063" t="n">
+        <v>381</v>
+      </c>
+      <c r="C3063" t="n">
+        <v>315</v>
+      </c>
+      <c r="D3063" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3063" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3063" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3063" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3063" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3064">
+      <c r="A3064" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B3064" t="n">
+        <v>2028</v>
+      </c>
+      <c r="C3064" t="n">
+        <v>1331</v>
+      </c>
+      <c r="D3064" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3064" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3064" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3064" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3064" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3065">
+      <c r="A3065" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B3065" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3065" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3065" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3065" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3065" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3065" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3065" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3066">
+      <c r="A3066" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B3066" t="n">
+        <v>53116</v>
+      </c>
+      <c r="C3066" t="n">
+        <v>23569</v>
+      </c>
+      <c r="D3066" t="n">
+        <v>2035</v>
+      </c>
+      <c r="E3066" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3066" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3066" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3066" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3067">
+      <c r="A3067" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B3067" t="n">
+        <v>725</v>
+      </c>
+      <c r="C3067" t="n">
+        <v>118</v>
+      </c>
+      <c r="D3067" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3067" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3067" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3067" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3067" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3068">
+      <c r="A3068" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B3068" t="n">
+        <v>26141</v>
+      </c>
+      <c r="C3068" t="n">
+        <v>18159</v>
+      </c>
+      <c r="D3068" t="n">
+        <v>1618</v>
+      </c>
+      <c r="E3068" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3068" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3068" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3068" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3069">
+      <c r="A3069" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B3069" t="n">
+        <v>9743</v>
+      </c>
+      <c r="C3069" t="n">
+        <v>4889</v>
+      </c>
+      <c r="D3069" t="n">
+        <v>144</v>
+      </c>
+      <c r="E3069" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3069" t="n">
+        <v>525</v>
+      </c>
+      <c r="G3069" t="n">
+        <v>333</v>
+      </c>
+      <c r="H3069" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3070">
+      <c r="A3070" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3070" t="n">
+        <v>619</v>
+      </c>
+      <c r="C3070" t="n">
+        <v>388</v>
+      </c>
+      <c r="D3070" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3070" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3070" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3070" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3070" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3071">
+      <c r="A3071" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B3071" t="n">
+        <v>5680</v>
+      </c>
+      <c r="C3071" t="n">
+        <v>3194</v>
+      </c>
+      <c r="D3071" t="n">
+        <v>75</v>
+      </c>
+      <c r="E3071" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3071" t="n">
+        <v>125</v>
+      </c>
+      <c r="G3071" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3071" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3072">
+      <c r="A3072" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B3072" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C3072" t="n">
+        <v>1332</v>
+      </c>
+      <c r="D3072" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3072" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3072" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3072" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3072" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3073">
+      <c r="A3073" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B3073" t="n">
+        <v>8281</v>
+      </c>
+      <c r="C3073" t="n">
+        <v>5210</v>
+      </c>
+      <c r="D3073" t="n">
+        <v>124</v>
+      </c>
+      <c r="E3073" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3073" t="n">
+        <v>337</v>
+      </c>
+      <c r="G3073" t="n">
+        <v>227</v>
+      </c>
+      <c r="H3073" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3074">
+      <c r="A3074" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B3074" t="n">
+        <v>2912</v>
+      </c>
+      <c r="C3074" t="n">
+        <v>1511</v>
+      </c>
+      <c r="D3074" t="n">
+        <v>21</v>
+      </c>
+      <c r="E3074" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3074" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3074" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3074" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3075">
+      <c r="A3075" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B3075" t="n">
+        <v>744</v>
+      </c>
+      <c r="C3075" t="n">
+        <v>95</v>
+      </c>
+      <c r="D3075" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3075" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3075" t="n">
+        <v>57</v>
+      </c>
+      <c r="G3075" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3075" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3076">
+      <c r="A3076" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B3076" t="n">
+        <v>11582</v>
+      </c>
+      <c r="C3076" t="n">
+        <v>8748</v>
+      </c>
+      <c r="D3076" t="n">
+        <v>495</v>
+      </c>
+      <c r="E3076" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3076" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3076" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3076" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3077">
+      <c r="A3077" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B3077" t="n">
+        <v>124331</v>
+      </c>
+      <c r="C3077" t="n">
+        <v>62773</v>
+      </c>
+      <c r="D3077" t="n">
+        <v>5893</v>
+      </c>
+      <c r="E3077" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3077" t="n">
+        <v>3827</v>
+      </c>
+      <c r="G3077" t="n">
+        <v>1935</v>
+      </c>
+      <c r="H3077" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3078">
+      <c r="A3078" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B3078" t="n">
+        <v>681</v>
+      </c>
+      <c r="C3078" t="n">
+        <v>218</v>
+      </c>
+      <c r="D3078" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3078" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3078" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3078" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3078" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3079">
+      <c r="A3079" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B3079" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3079" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3079" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3079" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3079" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3079" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3079" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3080">
+      <c r="A3080" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B3080" t="n">
+        <v>130</v>
+      </c>
+      <c r="C3080" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3080" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3080" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3080" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3080" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3080" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3081">
+      <c r="A3081" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B3081" t="n">
+        <v>198</v>
+      </c>
+      <c r="C3081" t="n">
+        <v>125</v>
+      </c>
+      <c r="D3081" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3081" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3081" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3081" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3081" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3082">
+      <c r="A3082" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B3082" t="n">
+        <v>4677</v>
+      </c>
+      <c r="C3082" t="n">
+        <v>3297</v>
+      </c>
+      <c r="D3082" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3082" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3082" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3082" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3082" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3083">
+      <c r="A3083" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B3083" t="n">
+        <v>286</v>
+      </c>
+      <c r="C3083" t="n">
+        <v>118</v>
+      </c>
+      <c r="D3083" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3083" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3083" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3083" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3083" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3084">
+      <c r="A3084" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B3084" t="n">
+        <v>3832</v>
+      </c>
+      <c r="C3084" t="n">
+        <v>2636</v>
+      </c>
+      <c r="D3084" t="n">
+        <v>92</v>
+      </c>
+      <c r="E3084" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3084" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3084" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3084" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3085">
+      <c r="A3085" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B3085" t="n">
+        <v>14156</v>
+      </c>
+      <c r="C3085" t="n">
+        <v>10997</v>
+      </c>
+      <c r="D3085" t="n">
+        <v>333</v>
+      </c>
+      <c r="E3085" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3085" t="n">
+        <v>299</v>
+      </c>
+      <c r="G3085" t="n">
+        <v>255</v>
+      </c>
+      <c r="H3085" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3086">
+      <c r="A3086" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B3086" t="n">
+        <v>70</v>
+      </c>
+      <c r="C3086" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3086" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3086" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3086" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3086" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3086" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3087">
+      <c r="A3087" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B3087" t="n">
+        <v>54449</v>
+      </c>
+      <c r="C3087" t="n">
+        <v>30271</v>
+      </c>
+      <c r="D3087" t="n">
+        <v>666</v>
+      </c>
+      <c r="E3087" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3087" t="n">
+        <v>2115</v>
+      </c>
+      <c r="G3087" t="n">
+        <v>1630</v>
+      </c>
+      <c r="H3087" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3088">
+      <c r="A3088" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B3088" t="n">
+        <v>6526</v>
+      </c>
+      <c r="C3088" t="n">
+        <v>3353</v>
+      </c>
+      <c r="D3088" t="n">
+        <v>198</v>
+      </c>
+      <c r="E3088" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3088" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3088" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3088" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3089">
+      <c r="A3089" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B3089" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C3089" t="n">
+        <v>657</v>
+      </c>
+      <c r="D3089" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3089" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3089" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3089" t="n">
+        <v>18</v>
+      </c>
+      <c r="H3089" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3090">
+      <c r="A3090" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B3090" t="n">
+        <v>2177</v>
+      </c>
+      <c r="C3090" t="n">
+        <v>1433</v>
+      </c>
+      <c r="D3090" t="n">
+        <v>26</v>
+      </c>
+      <c r="E3090" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3090" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3090" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3090" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3091">
+      <c r="A3091" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B3091" t="n">
+        <v>15785</v>
+      </c>
+      <c r="C3091" t="n">
+        <v>9638</v>
+      </c>
+      <c r="D3091" t="n">
+        <v>488</v>
+      </c>
+      <c r="E3091" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3091" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3091" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3091" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3092">
+      <c r="A3092" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B3092" t="n">
+        <v>13090</v>
+      </c>
+      <c r="C3092" t="n">
+        <v>7303</v>
+      </c>
+      <c r="D3092" t="n">
+        <v>529</v>
+      </c>
+      <c r="E3092" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3092" t="n">
+        <v>355</v>
+      </c>
+      <c r="G3092" t="n">
+        <v>302</v>
+      </c>
+      <c r="H3092" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3093">
+      <c r="A3093" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B3093" t="n">
+        <v>9743</v>
+      </c>
+      <c r="C3093" t="n">
+        <v>4889</v>
+      </c>
+      <c r="D3093" t="n">
+        <v>144</v>
+      </c>
+      <c r="E3093" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3093" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3093" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3093" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3094">
+      <c r="A3094" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B3094" t="n">
+        <v>5680</v>
+      </c>
+      <c r="C3094" t="n">
+        <v>3194</v>
+      </c>
+      <c r="D3094" t="n">
+        <v>75</v>
+      </c>
+      <c r="E3094" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3094" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3094" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3094" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3095">
+      <c r="A3095" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B3095" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C3095" t="n">
+        <v>1332</v>
+      </c>
+      <c r="D3095" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3095" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3095" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3095" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3095" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3096">
+      <c r="A3096" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B3096" t="n">
+        <v>8281</v>
+      </c>
+      <c r="C3096" t="n">
+        <v>5210</v>
+      </c>
+      <c r="D3096" t="n">
+        <v>124</v>
+      </c>
+      <c r="E3096" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3096" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3096" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3096" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3097">
+      <c r="A3097" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B3097" t="n">
+        <v>2912</v>
+      </c>
+      <c r="C3097" t="n">
+        <v>1511</v>
+      </c>
+      <c r="D3097" t="n">
+        <v>21</v>
+      </c>
+      <c r="E3097" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3097" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3097" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3097" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3098">
+      <c r="A3098" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B3098" t="n">
+        <v>744</v>
+      </c>
+      <c r="C3098" t="n">
+        <v>95</v>
+      </c>
+      <c r="D3098" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3098" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3098" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3098" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3098" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3099">
+      <c r="A3099" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B3099" t="n">
+        <v>11582</v>
+      </c>
+      <c r="C3099" t="n">
+        <v>8748</v>
+      </c>
+      <c r="D3099" t="n">
+        <v>495</v>
+      </c>
+      <c r="E3099" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3099" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3099" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3099" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3100">
+      <c r="A3100" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B3100" t="n">
+        <v>124331</v>
+      </c>
+      <c r="C3100" t="n">
+        <v>62773</v>
+      </c>
+      <c r="D3100" t="n">
+        <v>5893</v>
+      </c>
+      <c r="E3100" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3101">
+      <c r="A3101" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B3101" t="n">
+        <v>681</v>
+      </c>
+      <c r="C3101" t="n">
+        <v>218</v>
+      </c>
+      <c r="D3101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3101" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3102">
+      <c r="A3102" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B3102" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3102" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3102" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3103">
+      <c r="A3103" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B3103" t="n">
+        <v>130</v>
+      </c>
+      <c r="C3103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3103" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3104">
+      <c r="A3104" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B3104" t="n">
+        <v>198</v>
+      </c>
+      <c r="C3104" t="n">
+        <v>125</v>
+      </c>
+      <c r="D3104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3104" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3105">
+      <c r="A3105" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B3105" t="n">
+        <v>4677</v>
+      </c>
+      <c r="C3105" t="n">
+        <v>3297</v>
+      </c>
+      <c r="D3105" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3105" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3106">
+      <c r="A3106" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B3106" t="n">
+        <v>286</v>
+      </c>
+      <c r="C3106" t="n">
+        <v>118</v>
+      </c>
+      <c r="D3106" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3106" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3107">
+      <c r="A3107" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B3107" t="n">
+        <v>3832</v>
+      </c>
+      <c r="C3107" t="n">
+        <v>2636</v>
+      </c>
+      <c r="D3107" t="n">
+        <v>92</v>
+      </c>
+      <c r="E3107" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3108">
+      <c r="A3108" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B3108" t="n">
+        <v>14156</v>
+      </c>
+      <c r="C3108" t="n">
+        <v>10997</v>
+      </c>
+      <c r="D3108" t="n">
+        <v>333</v>
+      </c>
+      <c r="E3108" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3109">
+      <c r="A3109" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B3109" t="n">
+        <v>70</v>
+      </c>
+      <c r="C3109" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3109" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3110">
+      <c r="A3110" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B3110" t="n">
+        <v>54449</v>
+      </c>
+      <c r="C3110" t="n">
+        <v>30271</v>
+      </c>
+      <c r="D3110" t="n">
+        <v>666</v>
+      </c>
+      <c r="E3110" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3111">
+      <c r="A3111" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B3111" t="n">
+        <v>6526</v>
+      </c>
+      <c r="C3111" t="n">
+        <v>3353</v>
+      </c>
+      <c r="D3111" t="n">
+        <v>198</v>
+      </c>
+      <c r="E3111" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3112">
+      <c r="A3112" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B3112" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C3112" t="n">
+        <v>657</v>
+      </c>
+      <c r="D3112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3112" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3113">
+      <c r="A3113" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B3113" t="n">
+        <v>2177</v>
+      </c>
+      <c r="C3113" t="n">
+        <v>1433</v>
+      </c>
+      <c r="D3113" t="n">
+        <v>26</v>
+      </c>
+      <c r="E3113" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3114">
+      <c r="A3114" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B3114" t="n">
+        <v>15785</v>
+      </c>
+      <c r="C3114" t="n">
+        <v>9638</v>
+      </c>
+      <c r="D3114" t="n">
+        <v>488</v>
+      </c>
+      <c r="E3114" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3115">
+      <c r="A3115" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B3115" t="n">
+        <v>13090</v>
+      </c>
+      <c r="C3115" t="n">
+        <v>7303</v>
+      </c>
+      <c r="D3115" t="n">
+        <v>529</v>
+      </c>
+      <c r="E3115" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3116">
+      <c r="A3116" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3116" t="n">
+        <v>619</v>
+      </c>
+      <c r="C3116" t="n">
+        <v>388</v>
+      </c>
+      <c r="D3116" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3116" t="inlineStr">
+        <is>
+          <t>20-06-2020</t>
+        </is>
+      </c>
+      <c r="F3116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3117">
+      <c r="A3117" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B3117" t="n">
+        <v>47</v>
+      </c>
+      <c r="C3117" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3117" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3117" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3118">
+      <c r="A3118" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B3118" t="n">
+        <v>8452</v>
+      </c>
+      <c r="C3118" t="n">
+        <v>4111</v>
+      </c>
+      <c r="D3118" t="n">
+        <v>101</v>
+      </c>
+      <c r="E3118" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3118" t="n">
+        <v>491</v>
+      </c>
+      <c r="G3118" t="n">
+        <v>194</v>
+      </c>
+      <c r="H3118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3119">
+      <c r="A3119" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3119" t="n">
+        <v>135</v>
+      </c>
+      <c r="C3119" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3119" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3119" t="n">
+        <v>32</v>
+      </c>
+      <c r="G3119" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3120">
+      <c r="A3120" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B3120" t="n">
+        <v>4904</v>
+      </c>
+      <c r="C3120" t="n">
+        <v>3039</v>
+      </c>
+      <c r="D3120" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3120" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3121">
+      <c r="A3121" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B3121" t="n">
+        <v>7533</v>
+      </c>
+      <c r="C3121" t="n">
+        <v>5529</v>
+      </c>
+      <c r="D3121" t="n">
+        <v>52</v>
+      </c>
+      <c r="E3121" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3121" t="n">
+        <v>352</v>
+      </c>
+      <c r="G3121" t="n">
+        <v>431</v>
+      </c>
+      <c r="H3121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3122">
+      <c r="A3122" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B3122" t="n">
+        <v>404</v>
+      </c>
+      <c r="C3122" t="n">
+        <v>316</v>
+      </c>
+      <c r="D3122" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3122" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3122" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3123">
+      <c r="A3123" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B3123" t="n">
+        <v>2041</v>
+      </c>
+      <c r="C3123" t="n">
+        <v>1394</v>
+      </c>
+      <c r="D3123" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3123" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3123" t="n">
+        <v>13</v>
+      </c>
+      <c r="G3123" t="n">
+        <v>63</v>
+      </c>
+      <c r="H3123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3124">
+      <c r="A3124" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B3124" t="n">
+        <v>68</v>
+      </c>
+      <c r="C3124" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3124" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3124" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3124" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3125">
+      <c r="A3125" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B3125" t="n">
+        <v>56746</v>
+      </c>
+      <c r="C3125" t="n">
+        <v>31294</v>
+      </c>
+      <c r="D3125" t="n">
+        <v>2112</v>
+      </c>
+      <c r="E3125" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3125" t="n">
+        <v>3630</v>
+      </c>
+      <c r="G3125" t="n">
+        <v>7725</v>
+      </c>
+      <c r="H3125" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3126">
+      <c r="A3126" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B3126" t="n">
+        <v>754</v>
+      </c>
+      <c r="C3126" t="n">
+        <v>129</v>
+      </c>
+      <c r="D3126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3126" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3126" t="n">
+        <v>29</v>
+      </c>
+      <c r="G3126" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3127">
+      <c r="A3127" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B3127" t="n">
+        <v>26680</v>
+      </c>
+      <c r="C3127" t="n">
+        <v>18694</v>
+      </c>
+      <c r="D3127" t="n">
+        <v>1638</v>
+      </c>
+      <c r="E3127" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3127" t="n">
+        <v>539</v>
+      </c>
+      <c r="G3127" t="n">
+        <v>535</v>
+      </c>
+      <c r="H3127" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3128">
+      <c r="A3128" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B3128" t="n">
+        <v>10223</v>
+      </c>
+      <c r="C3128" t="n">
+        <v>5128</v>
+      </c>
+      <c r="D3128" t="n">
+        <v>149</v>
+      </c>
+      <c r="E3128" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3128" t="n">
+        <v>480</v>
+      </c>
+      <c r="G3128" t="n">
+        <v>239</v>
+      </c>
+      <c r="H3128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3129">
+      <c r="A3129" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3129" t="n">
+        <v>656</v>
+      </c>
+      <c r="C3129" t="n">
+        <v>413</v>
+      </c>
+      <c r="D3129" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3129" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3129" t="n">
+        <v>37</v>
+      </c>
+      <c r="G3129" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3130">
+      <c r="A3130" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B3130" t="n">
+        <v>5834</v>
+      </c>
+      <c r="C3130" t="n">
+        <v>3336</v>
+      </c>
+      <c r="D3130" t="n">
+        <v>81</v>
+      </c>
+      <c r="E3130" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3130" t="n">
+        <v>154</v>
+      </c>
+      <c r="G3130" t="n">
+        <v>142</v>
+      </c>
+      <c r="H3130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3131">
+      <c r="A3131" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B3131" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C3131" t="n">
+        <v>1335</v>
+      </c>
+      <c r="D3131" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3131" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3131" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3132">
+      <c r="A3132" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B3132" t="n">
+        <v>8697</v>
+      </c>
+      <c r="C3132" t="n">
+        <v>5391</v>
+      </c>
+      <c r="D3132" t="n">
+        <v>132</v>
+      </c>
+      <c r="E3132" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3132" t="n">
+        <v>416</v>
+      </c>
+      <c r="G3132" t="n">
+        <v>181</v>
+      </c>
+      <c r="H3132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133">
+      <c r="A3133" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B3133" t="n">
+        <v>3039</v>
+      </c>
+      <c r="C3133" t="n">
+        <v>1568</v>
+      </c>
+      <c r="D3133" t="n">
+        <v>21</v>
+      </c>
+      <c r="E3133" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3133" t="n">
+        <v>127</v>
+      </c>
+      <c r="G3133" t="n">
+        <v>57</v>
+      </c>
+      <c r="H3133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3134">
+      <c r="A3134" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B3134" t="n">
+        <v>836</v>
+      </c>
+      <c r="C3134" t="n">
+        <v>117</v>
+      </c>
+      <c r="D3134" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3134" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3134" t="n">
+        <v>92</v>
+      </c>
+      <c r="G3134" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3135">
+      <c r="A3135" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B3135" t="n">
+        <v>11724</v>
+      </c>
+      <c r="C3135" t="n">
+        <v>8880</v>
+      </c>
+      <c r="D3135" t="n">
+        <v>501</v>
+      </c>
+      <c r="E3135" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3135" t="n">
+        <v>142</v>
+      </c>
+      <c r="G3135" t="n">
+        <v>132</v>
+      </c>
+      <c r="H3135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3136">
+      <c r="A3136" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B3136" t="n">
+        <v>128205</v>
+      </c>
+      <c r="C3136" t="n">
+        <v>64153</v>
+      </c>
+      <c r="D3136" t="n">
+        <v>5984</v>
+      </c>
+      <c r="E3136" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3136" t="n">
+        <v>3874</v>
+      </c>
+      <c r="G3136" t="n">
+        <v>1380</v>
+      </c>
+      <c r="H3136" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3137">
+      <c r="A3137" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B3137" t="n">
+        <v>777</v>
+      </c>
+      <c r="C3137" t="n">
+        <v>232</v>
+      </c>
+      <c r="D3137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3137" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3137" t="n">
+        <v>96</v>
+      </c>
+      <c r="G3137" t="n">
+        <v>14</v>
+      </c>
+      <c r="H3137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3138">
+      <c r="A3138" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B3138" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3138" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3138" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3138" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3139">
+      <c r="A3139" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B3139" t="n">
+        <v>140</v>
+      </c>
+      <c r="C3139" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3139" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3139" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3139" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3140">
+      <c r="A3140" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B3140" t="n">
+        <v>201</v>
+      </c>
+      <c r="C3140" t="n">
+        <v>138</v>
+      </c>
+      <c r="D3140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3140" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3140" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3140" t="n">
+        <v>13</v>
+      </c>
+      <c r="H3140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3141">
+      <c r="A3141" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B3141" t="n">
+        <v>4856</v>
+      </c>
+      <c r="C3141" t="n">
+        <v>3534</v>
+      </c>
+      <c r="D3141" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3141" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3141" t="n">
+        <v>179</v>
+      </c>
+      <c r="G3141" t="n">
+        <v>237</v>
+      </c>
+      <c r="H3141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3142">
+      <c r="A3142" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B3142" t="n">
+        <v>286</v>
+      </c>
+      <c r="C3142" t="n">
+        <v>118</v>
+      </c>
+      <c r="D3142" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3142" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3143">
+      <c r="A3143" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B3143" t="n">
+        <v>3952</v>
+      </c>
+      <c r="C3143" t="n">
+        <v>2678</v>
+      </c>
+      <c r="D3143" t="n">
+        <v>98</v>
+      </c>
+      <c r="E3143" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3143" t="n">
+        <v>120</v>
+      </c>
+      <c r="G3143" t="n">
+        <v>42</v>
+      </c>
+      <c r="H3143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3144">
+      <c r="A3144" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B3144" t="n">
+        <v>14536</v>
+      </c>
+      <c r="C3144" t="n">
+        <v>11274</v>
+      </c>
+      <c r="D3144" t="n">
+        <v>337</v>
+      </c>
+      <c r="E3144" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3144" t="n">
+        <v>380</v>
+      </c>
+      <c r="G3144" t="n">
+        <v>277</v>
+      </c>
+      <c r="H3144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3145">
+      <c r="A3145" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B3145" t="n">
+        <v>70</v>
+      </c>
+      <c r="C3145" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3145" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3145" t="n">
+        <v>20</v>
+      </c>
+      <c r="H3145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3146">
+      <c r="A3146" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B3146" t="n">
+        <v>56845</v>
+      </c>
+      <c r="C3146" t="n">
+        <v>31316</v>
+      </c>
+      <c r="D3146" t="n">
+        <v>704</v>
+      </c>
+      <c r="E3146" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3146" t="n">
+        <v>2396</v>
+      </c>
+      <c r="G3146" t="n">
+        <v>1045</v>
+      </c>
+      <c r="H3146" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3147">
+      <c r="A3147" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B3147" t="n">
+        <v>7072</v>
+      </c>
+      <c r="C3147" t="n">
+        <v>3506</v>
+      </c>
+      <c r="D3147" t="n">
+        <v>203</v>
+      </c>
+      <c r="E3147" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3147" t="n">
+        <v>546</v>
+      </c>
+      <c r="G3147" t="n">
+        <v>153</v>
+      </c>
+      <c r="H3147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3148">
+      <c r="A3148" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B3148" t="n">
+        <v>1186</v>
+      </c>
+      <c r="C3148" t="n">
+        <v>680</v>
+      </c>
+      <c r="D3148" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3148" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3148" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3148" t="n">
+        <v>23</v>
+      </c>
+      <c r="H3148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3149">
+      <c r="A3149" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B3149" t="n">
+        <v>2301</v>
+      </c>
+      <c r="C3149" t="n">
+        <v>1450</v>
+      </c>
+      <c r="D3149" t="n">
+        <v>27</v>
+      </c>
+      <c r="E3149" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3149" t="n">
+        <v>124</v>
+      </c>
+      <c r="G3149" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3150">
+      <c r="A3150" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B3150" t="n">
+        <v>16594</v>
+      </c>
+      <c r="C3150" t="n">
+        <v>9995</v>
+      </c>
+      <c r="D3150" t="n">
+        <v>507</v>
+      </c>
+      <c r="E3150" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3150" t="n">
+        <v>809</v>
+      </c>
+      <c r="G3150" t="n">
+        <v>357</v>
+      </c>
+      <c r="H3150" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3151">
+      <c r="A3151" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B3151" t="n">
+        <v>13531</v>
+      </c>
+      <c r="C3151" t="n">
+        <v>7865</v>
+      </c>
+      <c r="D3151" t="n">
+        <v>540</v>
+      </c>
+      <c r="E3151" t="inlineStr">
+        <is>
+          <t>21-06-2020</t>
+        </is>
+      </c>
+      <c r="F3151" t="n">
+        <v>441</v>
+      </c>
+      <c r="G3151" t="n">
+        <v>562</v>
+      </c>
+      <c r="H3151" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Corona_database_extract.xlsx
+++ b/Corona_database_extract.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3151"/>
+  <dimension ref="A1:H3186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89948,6 +89948,1056 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3152">
+      <c r="A3152" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B3152" t="n">
+        <v>59</v>
+      </c>
+      <c r="C3152" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3152" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3152" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3152" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3153">
+      <c r="A3153" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B3153" t="n">
+        <v>10884</v>
+      </c>
+      <c r="C3153" t="n">
+        <v>4988</v>
+      </c>
+      <c r="D3153" t="n">
+        <v>136</v>
+      </c>
+      <c r="E3153" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3153" t="n">
+        <v>2432</v>
+      </c>
+      <c r="G3153" t="n">
+        <v>877</v>
+      </c>
+      <c r="H3153" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3154">
+      <c r="A3154" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3154" t="n">
+        <v>160</v>
+      </c>
+      <c r="C3154" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3154" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3154" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3154" t="n">
+        <v>25</v>
+      </c>
+      <c r="G3154" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3155">
+      <c r="A3155" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B3155" t="n">
+        <v>6321</v>
+      </c>
+      <c r="C3155" t="n">
+        <v>4033</v>
+      </c>
+      <c r="D3155" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3155" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3155" t="n">
+        <v>1417</v>
+      </c>
+      <c r="G3155" t="n">
+        <v>994</v>
+      </c>
+      <c r="H3155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3156">
+      <c r="A3156" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B3156" t="n">
+        <v>8473</v>
+      </c>
+      <c r="C3156" t="n">
+        <v>6441</v>
+      </c>
+      <c r="D3156" t="n">
+        <v>57</v>
+      </c>
+      <c r="E3156" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3156" t="n">
+        <v>940</v>
+      </c>
+      <c r="G3156" t="n">
+        <v>912</v>
+      </c>
+      <c r="H3156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3157">
+      <c r="A3157" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B3157" t="n">
+        <v>423</v>
+      </c>
+      <c r="C3157" t="n">
+        <v>329</v>
+      </c>
+      <c r="D3157" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3157" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3157" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3157" t="n">
+        <v>13</v>
+      </c>
+      <c r="H3157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3158">
+      <c r="A3158" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B3158" t="n">
+        <v>2452</v>
+      </c>
+      <c r="C3158" t="n">
+        <v>1755</v>
+      </c>
+      <c r="D3158" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3158" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3158" t="n">
+        <v>411</v>
+      </c>
+      <c r="G3158" t="n">
+        <v>361</v>
+      </c>
+      <c r="H3158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3159">
+      <c r="A3159" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B3159" t="n">
+        <v>155</v>
+      </c>
+      <c r="C3159" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3159" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3159" t="n">
+        <v>87</v>
+      </c>
+      <c r="G3159" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3160">
+      <c r="A3160" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B3160" t="n">
+        <v>73780</v>
+      </c>
+      <c r="C3160" t="n">
+        <v>44765</v>
+      </c>
+      <c r="D3160" t="n">
+        <v>2429</v>
+      </c>
+      <c r="E3160" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3160" t="n">
+        <v>17034</v>
+      </c>
+      <c r="G3160" t="n">
+        <v>13471</v>
+      </c>
+      <c r="H3160" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3161">
+      <c r="A3161" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B3161" t="n">
+        <v>995</v>
+      </c>
+      <c r="C3161" t="n">
+        <v>335</v>
+      </c>
+      <c r="D3161" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3161" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3161" t="n">
+        <v>241</v>
+      </c>
+      <c r="G3161" t="n">
+        <v>206</v>
+      </c>
+      <c r="H3161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3162">
+      <c r="A3162" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B3162" t="n">
+        <v>29520</v>
+      </c>
+      <c r="C3162" t="n">
+        <v>21498</v>
+      </c>
+      <c r="D3162" t="n">
+        <v>1753</v>
+      </c>
+      <c r="E3162" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3162" t="n">
+        <v>2840</v>
+      </c>
+      <c r="G3162" t="n">
+        <v>2804</v>
+      </c>
+      <c r="H3162" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3163">
+      <c r="A3163" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B3163" t="n">
+        <v>12463</v>
+      </c>
+      <c r="C3163" t="n">
+        <v>7380</v>
+      </c>
+      <c r="D3163" t="n">
+        <v>198</v>
+      </c>
+      <c r="E3163" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3163" t="n">
+        <v>2240</v>
+      </c>
+      <c r="G3163" t="n">
+        <v>2252</v>
+      </c>
+      <c r="H3163" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3164">
+      <c r="A3164" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3164" t="n">
+        <v>839</v>
+      </c>
+      <c r="C3164" t="n">
+        <v>477</v>
+      </c>
+      <c r="D3164" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3164" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3164" t="n">
+        <v>183</v>
+      </c>
+      <c r="G3164" t="n">
+        <v>64</v>
+      </c>
+      <c r="H3164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3165">
+      <c r="A3165" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B3165" t="n">
+        <v>6549</v>
+      </c>
+      <c r="C3165" t="n">
+        <v>3967</v>
+      </c>
+      <c r="D3165" t="n">
+        <v>90</v>
+      </c>
+      <c r="E3165" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3165" t="n">
+        <v>715</v>
+      </c>
+      <c r="G3165" t="n">
+        <v>631</v>
+      </c>
+      <c r="H3165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3166">
+      <c r="A3166" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B3166" t="n">
+        <v>2262</v>
+      </c>
+      <c r="C3166" t="n">
+        <v>1605</v>
+      </c>
+      <c r="D3166" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3166" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3166" t="n">
+        <v>297</v>
+      </c>
+      <c r="G3166" t="n">
+        <v>270</v>
+      </c>
+      <c r="H3166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3167">
+      <c r="A3167" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B3167" t="n">
+        <v>10560</v>
+      </c>
+      <c r="C3167" t="n">
+        <v>6670</v>
+      </c>
+      <c r="D3167" t="n">
+        <v>170</v>
+      </c>
+      <c r="E3167" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3167" t="n">
+        <v>1863</v>
+      </c>
+      <c r="G3167" t="n">
+        <v>1279</v>
+      </c>
+      <c r="H3167" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3168">
+      <c r="A3168" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B3168" t="n">
+        <v>3726</v>
+      </c>
+      <c r="C3168" t="n">
+        <v>1943</v>
+      </c>
+      <c r="D3168" t="n">
+        <v>22</v>
+      </c>
+      <c r="E3168" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3168" t="n">
+        <v>687</v>
+      </c>
+      <c r="G3168" t="n">
+        <v>375</v>
+      </c>
+      <c r="H3168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3169">
+      <c r="A3169" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B3169" t="n">
+        <v>941</v>
+      </c>
+      <c r="C3169" t="n">
+        <v>358</v>
+      </c>
+      <c r="D3169" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3169" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3169" t="n">
+        <v>105</v>
+      </c>
+      <c r="G3169" t="n">
+        <v>241</v>
+      </c>
+      <c r="H3169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3170">
+      <c r="A3170" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B3170" t="n">
+        <v>12596</v>
+      </c>
+      <c r="C3170" t="n">
+        <v>9619</v>
+      </c>
+      <c r="D3170" t="n">
+        <v>542</v>
+      </c>
+      <c r="E3170" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3170" t="n">
+        <v>872</v>
+      </c>
+      <c r="G3170" t="n">
+        <v>739</v>
+      </c>
+      <c r="H3170" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3171">
+      <c r="A3171" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B3171" t="n">
+        <v>147741</v>
+      </c>
+      <c r="C3171" t="n">
+        <v>77453</v>
+      </c>
+      <c r="D3171" t="n">
+        <v>6931</v>
+      </c>
+      <c r="E3171" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3171" t="n">
+        <v>19536</v>
+      </c>
+      <c r="G3171" t="n">
+        <v>13300</v>
+      </c>
+      <c r="H3171" t="n">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="3172">
+      <c r="A3172" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B3172" t="n">
+        <v>1056</v>
+      </c>
+      <c r="C3172" t="n">
+        <v>354</v>
+      </c>
+      <c r="D3172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3172" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3172" t="n">
+        <v>279</v>
+      </c>
+      <c r="G3172" t="n">
+        <v>122</v>
+      </c>
+      <c r="H3172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3173">
+      <c r="A3173" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B3173" t="n">
+        <v>46</v>
+      </c>
+      <c r="C3173" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3173" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3173" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3173" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3174">
+      <c r="A3174" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B3174" t="n">
+        <v>145</v>
+      </c>
+      <c r="C3174" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3174" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3174" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3174" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3175">
+      <c r="A3175" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B3175" t="n">
+        <v>355</v>
+      </c>
+      <c r="C3175" t="n">
+        <v>160</v>
+      </c>
+      <c r="D3175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3175" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3175" t="n">
+        <v>154</v>
+      </c>
+      <c r="G3175" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3176">
+      <c r="A3176" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B3176" t="n">
+        <v>5962</v>
+      </c>
+      <c r="C3176" t="n">
+        <v>4291</v>
+      </c>
+      <c r="D3176" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3176" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3176" t="n">
+        <v>1106</v>
+      </c>
+      <c r="G3176" t="n">
+        <v>757</v>
+      </c>
+      <c r="H3176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3177">
+      <c r="A3177" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B3177" t="n">
+        <v>502</v>
+      </c>
+      <c r="C3177" t="n">
+        <v>187</v>
+      </c>
+      <c r="D3177" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3177" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3177" t="n">
+        <v>216</v>
+      </c>
+      <c r="G3177" t="n">
+        <v>69</v>
+      </c>
+      <c r="H3177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3178">
+      <c r="A3178" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B3178" t="n">
+        <v>4769</v>
+      </c>
+      <c r="C3178" t="n">
+        <v>3192</v>
+      </c>
+      <c r="D3178" t="n">
+        <v>120</v>
+      </c>
+      <c r="E3178" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3178" t="n">
+        <v>817</v>
+      </c>
+      <c r="G3178" t="n">
+        <v>514</v>
+      </c>
+      <c r="H3178" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3179">
+      <c r="A3179" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B3179" t="n">
+        <v>16296</v>
+      </c>
+      <c r="C3179" t="n">
+        <v>12840</v>
+      </c>
+      <c r="D3179" t="n">
+        <v>379</v>
+      </c>
+      <c r="E3179" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3179" t="n">
+        <v>1760</v>
+      </c>
+      <c r="G3179" t="n">
+        <v>1566</v>
+      </c>
+      <c r="H3179" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3180">
+      <c r="A3180" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B3180" t="n">
+        <v>85</v>
+      </c>
+      <c r="C3180" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3180" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3180" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3180" t="n">
+        <v>14</v>
+      </c>
+      <c r="H3180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3181">
+      <c r="A3181" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B3181" t="n">
+        <v>70977</v>
+      </c>
+      <c r="C3181" t="n">
+        <v>39999</v>
+      </c>
+      <c r="D3181" t="n">
+        <v>911</v>
+      </c>
+      <c r="E3181" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3181" t="n">
+        <v>14132</v>
+      </c>
+      <c r="G3181" t="n">
+        <v>8683</v>
+      </c>
+      <c r="H3181" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3182">
+      <c r="A3182" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B3182" t="n">
+        <v>11364</v>
+      </c>
+      <c r="C3182" t="n">
+        <v>4688</v>
+      </c>
+      <c r="D3182" t="n">
+        <v>230</v>
+      </c>
+      <c r="E3182" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3182" t="n">
+        <v>4292</v>
+      </c>
+      <c r="G3182" t="n">
+        <v>1182</v>
+      </c>
+      <c r="H3182" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3183">
+      <c r="A3183" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B3183" t="n">
+        <v>1290</v>
+      </c>
+      <c r="C3183" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D3183" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3183" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3183" t="n">
+        <v>104</v>
+      </c>
+      <c r="G3183" t="n">
+        <v>339</v>
+      </c>
+      <c r="H3183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3184">
+      <c r="A3184" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B3184" t="n">
+        <v>2691</v>
+      </c>
+      <c r="C3184" t="n">
+        <v>1758</v>
+      </c>
+      <c r="D3184" t="n">
+        <v>36</v>
+      </c>
+      <c r="E3184" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3184" t="n">
+        <v>390</v>
+      </c>
+      <c r="G3184" t="n">
+        <v>308</v>
+      </c>
+      <c r="H3184" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3185">
+      <c r="A3185" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B3185" t="n">
+        <v>20193</v>
+      </c>
+      <c r="C3185" t="n">
+        <v>13119</v>
+      </c>
+      <c r="D3185" t="n">
+        <v>611</v>
+      </c>
+      <c r="E3185" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3185" t="n">
+        <v>3599</v>
+      </c>
+      <c r="G3185" t="n">
+        <v>3124</v>
+      </c>
+      <c r="H3185" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3186">
+      <c r="A3186" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B3186" t="n">
+        <v>15648</v>
+      </c>
+      <c r="C3186" t="n">
+        <v>10190</v>
+      </c>
+      <c r="D3186" t="n">
+        <v>606</v>
+      </c>
+      <c r="E3186" t="inlineStr">
+        <is>
+          <t>26-06-2020</t>
+        </is>
+      </c>
+      <c r="F3186" t="n">
+        <v>2117</v>
+      </c>
+      <c r="G3186" t="n">
+        <v>2325</v>
+      </c>
+      <c r="H3186" t="n">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Corona_database_extract.xlsx
+++ b/Corona_database_extract.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3186"/>
+  <dimension ref="A1:H3396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90998,6 +90998,6306 @@
         <v>66</v>
       </c>
     </row>
+    <row r="3187">
+      <c r="A3187" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B3187" t="n">
+        <v>72</v>
+      </c>
+      <c r="C3187" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3187" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3187" t="n">
+        <v>13</v>
+      </c>
+      <c r="G3187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3188">
+      <c r="A3188" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B3188" t="n">
+        <v>11489</v>
+      </c>
+      <c r="C3188" t="n">
+        <v>5196</v>
+      </c>
+      <c r="D3188" t="n">
+        <v>148</v>
+      </c>
+      <c r="E3188" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3188" t="n">
+        <v>605</v>
+      </c>
+      <c r="G3188" t="n">
+        <v>208</v>
+      </c>
+      <c r="H3188" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3189">
+      <c r="A3189" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3189" t="n">
+        <v>172</v>
+      </c>
+      <c r="C3189" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3189" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3189" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3189" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3189" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3190">
+      <c r="A3190" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B3190" t="n">
+        <v>6607</v>
+      </c>
+      <c r="C3190" t="n">
+        <v>4259</v>
+      </c>
+      <c r="D3190" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3190" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3190" t="n">
+        <v>286</v>
+      </c>
+      <c r="G3190" t="n">
+        <v>226</v>
+      </c>
+      <c r="H3190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3191">
+      <c r="A3191" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B3191" t="n">
+        <v>8716</v>
+      </c>
+      <c r="C3191" t="n">
+        <v>6762</v>
+      </c>
+      <c r="D3191" t="n">
+        <v>58</v>
+      </c>
+      <c r="E3191" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3191" t="n">
+        <v>243</v>
+      </c>
+      <c r="G3191" t="n">
+        <v>321</v>
+      </c>
+      <c r="H3191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3192">
+      <c r="A3192" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B3192" t="n">
+        <v>425</v>
+      </c>
+      <c r="C3192" t="n">
+        <v>335</v>
+      </c>
+      <c r="D3192" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3192" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3192" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3192" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3193">
+      <c r="A3193" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B3193" t="n">
+        <v>2545</v>
+      </c>
+      <c r="C3193" t="n">
+        <v>1914</v>
+      </c>
+      <c r="D3193" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3193" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3193" t="n">
+        <v>93</v>
+      </c>
+      <c r="G3193" t="n">
+        <v>159</v>
+      </c>
+      <c r="H3193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3194">
+      <c r="A3194" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B3194" t="n">
+        <v>163</v>
+      </c>
+      <c r="C3194" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3194" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3194" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3194" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3195">
+      <c r="A3195" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B3195" t="n">
+        <v>77240</v>
+      </c>
+      <c r="C3195" t="n">
+        <v>47091</v>
+      </c>
+      <c r="D3195" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E3195" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3195" t="n">
+        <v>3460</v>
+      </c>
+      <c r="G3195" t="n">
+        <v>2326</v>
+      </c>
+      <c r="H3195" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3196">
+      <c r="A3196" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B3196" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C3196" t="n">
+        <v>370</v>
+      </c>
+      <c r="D3196" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3196" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3196" t="n">
+        <v>44</v>
+      </c>
+      <c r="G3196" t="n">
+        <v>35</v>
+      </c>
+      <c r="H3196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3197">
+      <c r="A3197" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B3197" t="n">
+        <v>30095</v>
+      </c>
+      <c r="C3197" t="n">
+        <v>22030</v>
+      </c>
+      <c r="D3197" t="n">
+        <v>1771</v>
+      </c>
+      <c r="E3197" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3197" t="n">
+        <v>575</v>
+      </c>
+      <c r="G3197" t="n">
+        <v>532</v>
+      </c>
+      <c r="H3197" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3198">
+      <c r="A3198" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B3198" t="n">
+        <v>12884</v>
+      </c>
+      <c r="C3198" t="n">
+        <v>8016</v>
+      </c>
+      <c r="D3198" t="n">
+        <v>211</v>
+      </c>
+      <c r="E3198" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3198" t="n">
+        <v>421</v>
+      </c>
+      <c r="G3198" t="n">
+        <v>636</v>
+      </c>
+      <c r="H3198" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3199">
+      <c r="A3199" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3199" t="n">
+        <v>864</v>
+      </c>
+      <c r="C3199" t="n">
+        <v>502</v>
+      </c>
+      <c r="D3199" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3199" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3199" t="n">
+        <v>25</v>
+      </c>
+      <c r="G3199" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3200">
+      <c r="A3200" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B3200" t="n">
+        <v>6762</v>
+      </c>
+      <c r="C3200" t="n">
+        <v>4080</v>
+      </c>
+      <c r="D3200" t="n">
+        <v>91</v>
+      </c>
+      <c r="E3200" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3200" t="n">
+        <v>213</v>
+      </c>
+      <c r="G3200" t="n">
+        <v>113</v>
+      </c>
+      <c r="H3200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3201">
+      <c r="A3201" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B3201" t="n">
+        <v>2290</v>
+      </c>
+      <c r="C3201" t="n">
+        <v>1643</v>
+      </c>
+      <c r="D3201" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3201" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3201" t="n">
+        <v>28</v>
+      </c>
+      <c r="G3201" t="n">
+        <v>38</v>
+      </c>
+      <c r="H3201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3202">
+      <c r="A3202" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B3202" t="n">
+        <v>11005</v>
+      </c>
+      <c r="C3202" t="n">
+        <v>6916</v>
+      </c>
+      <c r="D3202" t="n">
+        <v>180</v>
+      </c>
+      <c r="E3202" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3202" t="n">
+        <v>445</v>
+      </c>
+      <c r="G3202" t="n">
+        <v>246</v>
+      </c>
+      <c r="H3202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3203">
+      <c r="A3203" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B3203" t="n">
+        <v>3876</v>
+      </c>
+      <c r="C3203" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D3203" t="n">
+        <v>22</v>
+      </c>
+      <c r="E3203" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3203" t="n">
+        <v>150</v>
+      </c>
+      <c r="G3203" t="n">
+        <v>65</v>
+      </c>
+      <c r="H3203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3204">
+      <c r="A3204" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B3204" t="n">
+        <v>946</v>
+      </c>
+      <c r="C3204" t="n">
+        <v>358</v>
+      </c>
+      <c r="D3204" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3204" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3204" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3205">
+      <c r="A3205" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B3205" t="n">
+        <v>12798</v>
+      </c>
+      <c r="C3205" t="n">
+        <v>9804</v>
+      </c>
+      <c r="D3205" t="n">
+        <v>546</v>
+      </c>
+      <c r="E3205" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3205" t="n">
+        <v>202</v>
+      </c>
+      <c r="G3205" t="n">
+        <v>185</v>
+      </c>
+      <c r="H3205" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3206">
+      <c r="A3206" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B3206" t="n">
+        <v>152765</v>
+      </c>
+      <c r="C3206" t="n">
+        <v>79815</v>
+      </c>
+      <c r="D3206" t="n">
+        <v>7106</v>
+      </c>
+      <c r="E3206" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3206" t="n">
+        <v>5024</v>
+      </c>
+      <c r="G3206" t="n">
+        <v>2362</v>
+      </c>
+      <c r="H3206" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3207">
+      <c r="A3207" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B3207" t="n">
+        <v>1075</v>
+      </c>
+      <c r="C3207" t="n">
+        <v>393</v>
+      </c>
+      <c r="D3207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3207" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3207" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3207" t="n">
+        <v>39</v>
+      </c>
+      <c r="H3207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3208">
+      <c r="A3208" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B3208" t="n">
+        <v>47</v>
+      </c>
+      <c r="C3208" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3208" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3208" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3208" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3209">
+      <c r="A3209" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B3209" t="n">
+        <v>145</v>
+      </c>
+      <c r="C3209" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3209" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3210">
+      <c r="A3210" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B3210" t="n">
+        <v>371</v>
+      </c>
+      <c r="C3210" t="n">
+        <v>162</v>
+      </c>
+      <c r="D3210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3210" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3210" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3210" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3211">
+      <c r="A3211" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B3211" t="n">
+        <v>6180</v>
+      </c>
+      <c r="C3211" t="n">
+        <v>4422</v>
+      </c>
+      <c r="D3211" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3211" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3211" t="n">
+        <v>218</v>
+      </c>
+      <c r="G3211" t="n">
+        <v>131</v>
+      </c>
+      <c r="H3211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3212">
+      <c r="A3212" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B3212" t="n">
+        <v>502</v>
+      </c>
+      <c r="C3212" t="n">
+        <v>187</v>
+      </c>
+      <c r="D3212" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3212" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3213">
+      <c r="A3213" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B3213" t="n">
+        <v>4957</v>
+      </c>
+      <c r="C3213" t="n">
+        <v>3201</v>
+      </c>
+      <c r="D3213" t="n">
+        <v>122</v>
+      </c>
+      <c r="E3213" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3213" t="n">
+        <v>188</v>
+      </c>
+      <c r="G3213" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3214">
+      <c r="A3214" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B3214" t="n">
+        <v>16660</v>
+      </c>
+      <c r="C3214" t="n">
+        <v>13062</v>
+      </c>
+      <c r="D3214" t="n">
+        <v>380</v>
+      </c>
+      <c r="E3214" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3214" t="n">
+        <v>364</v>
+      </c>
+      <c r="G3214" t="n">
+        <v>222</v>
+      </c>
+      <c r="H3214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3215">
+      <c r="A3215" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B3215" t="n">
+        <v>86</v>
+      </c>
+      <c r="C3215" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3215" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3215" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3216">
+      <c r="A3216" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B3216" t="n">
+        <v>74622</v>
+      </c>
+      <c r="C3216" t="n">
+        <v>41357</v>
+      </c>
+      <c r="D3216" t="n">
+        <v>957</v>
+      </c>
+      <c r="E3216" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3216" t="n">
+        <v>3645</v>
+      </c>
+      <c r="G3216" t="n">
+        <v>1358</v>
+      </c>
+      <c r="H3216" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3217">
+      <c r="A3217" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B3217" t="n">
+        <v>12349</v>
+      </c>
+      <c r="C3217" t="n">
+        <v>4766</v>
+      </c>
+      <c r="D3217" t="n">
+        <v>237</v>
+      </c>
+      <c r="E3217" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3217" t="n">
+        <v>985</v>
+      </c>
+      <c r="G3217" t="n">
+        <v>78</v>
+      </c>
+      <c r="H3217" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3218">
+      <c r="A3218" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B3218" t="n">
+        <v>1325</v>
+      </c>
+      <c r="C3218" t="n">
+        <v>1055</v>
+      </c>
+      <c r="D3218" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3218" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3218" t="n">
+        <v>35</v>
+      </c>
+      <c r="G3218" t="n">
+        <v>36</v>
+      </c>
+      <c r="H3218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3219">
+      <c r="A3219" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B3219" t="n">
+        <v>2725</v>
+      </c>
+      <c r="C3219" t="n">
+        <v>1822</v>
+      </c>
+      <c r="D3219" t="n">
+        <v>37</v>
+      </c>
+      <c r="E3219" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3219" t="n">
+        <v>34</v>
+      </c>
+      <c r="G3219" t="n">
+        <v>64</v>
+      </c>
+      <c r="H3219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3220">
+      <c r="A3220" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B3220" t="n">
+        <v>20943</v>
+      </c>
+      <c r="C3220" t="n">
+        <v>13583</v>
+      </c>
+      <c r="D3220" t="n">
+        <v>630</v>
+      </c>
+      <c r="E3220" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3220" t="n">
+        <v>750</v>
+      </c>
+      <c r="G3220" t="n">
+        <v>464</v>
+      </c>
+      <c r="H3220" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3221">
+      <c r="A3221" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B3221" t="n">
+        <v>16190</v>
+      </c>
+      <c r="C3221" t="n">
+        <v>10535</v>
+      </c>
+      <c r="D3221" t="n">
+        <v>616</v>
+      </c>
+      <c r="E3221" t="inlineStr">
+        <is>
+          <t>27-06-2020</t>
+        </is>
+      </c>
+      <c r="F3221" t="n">
+        <v>542</v>
+      </c>
+      <c r="G3221" t="n">
+        <v>345</v>
+      </c>
+      <c r="H3221" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3222">
+      <c r="A3222" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B3222" t="n">
+        <v>109</v>
+      </c>
+      <c r="C3222" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3222" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3222" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3222" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3223">
+      <c r="A3223" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B3223" t="n">
+        <v>16097</v>
+      </c>
+      <c r="C3223" t="n">
+        <v>7313</v>
+      </c>
+      <c r="D3223" t="n">
+        <v>198</v>
+      </c>
+      <c r="E3223" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3223" t="n">
+        <v>845</v>
+      </c>
+      <c r="G3223" t="n">
+        <v>325</v>
+      </c>
+      <c r="H3223" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3224">
+      <c r="A3224" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3224" t="n">
+        <v>195</v>
+      </c>
+      <c r="C3224" t="n">
+        <v>66</v>
+      </c>
+      <c r="D3224" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3224" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3225">
+      <c r="A3225" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B3225" t="n">
+        <v>9013</v>
+      </c>
+      <c r="C3225" t="n">
+        <v>6106</v>
+      </c>
+      <c r="D3225" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3225" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3225" t="n">
+        <v>431</v>
+      </c>
+      <c r="G3225" t="n">
+        <v>255</v>
+      </c>
+      <c r="H3225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3226">
+      <c r="A3226" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B3226" t="n">
+        <v>10471</v>
+      </c>
+      <c r="C3226" t="n">
+        <v>8020</v>
+      </c>
+      <c r="D3226" t="n">
+        <v>77</v>
+      </c>
+      <c r="E3226" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3226" t="n">
+        <v>222</v>
+      </c>
+      <c r="G3226" t="n">
+        <v>74</v>
+      </c>
+      <c r="H3226" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3227">
+      <c r="A3227" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B3227" t="n">
+        <v>450</v>
+      </c>
+      <c r="C3227" t="n">
+        <v>389</v>
+      </c>
+      <c r="D3227" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3227" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3227" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3227" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3228">
+      <c r="A3228" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B3228" t="n">
+        <v>3013</v>
+      </c>
+      <c r="C3228" t="n">
+        <v>2385</v>
+      </c>
+      <c r="D3228" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3228" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3228" t="n">
+        <v>73</v>
+      </c>
+      <c r="G3228" t="n">
+        <v>82</v>
+      </c>
+      <c r="H3228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3229">
+      <c r="A3229" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B3229" t="n">
+        <v>230</v>
+      </c>
+      <c r="C3229" t="n">
+        <v>89</v>
+      </c>
+      <c r="D3229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3229" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3229" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3229" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3230">
+      <c r="A3230" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B3230" t="n">
+        <v>92175</v>
+      </c>
+      <c r="C3230" t="n">
+        <v>63007</v>
+      </c>
+      <c r="D3230" t="n">
+        <v>2864</v>
+      </c>
+      <c r="E3230" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3230" t="n">
+        <v>2373</v>
+      </c>
+      <c r="G3230" t="n">
+        <v>3015</v>
+      </c>
+      <c r="H3230" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3231">
+      <c r="A3231" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B3231" t="n">
+        <v>1482</v>
+      </c>
+      <c r="C3231" t="n">
+        <v>734</v>
+      </c>
+      <c r="D3231" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3231" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3231" t="n">
+        <v>95</v>
+      </c>
+      <c r="G3231" t="n">
+        <v>64</v>
+      </c>
+      <c r="H3231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3232">
+      <c r="A3232" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B3232" t="n">
+        <v>33913</v>
+      </c>
+      <c r="C3232" t="n">
+        <v>24593</v>
+      </c>
+      <c r="D3232" t="n">
+        <v>1886</v>
+      </c>
+      <c r="E3232" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3232" t="n">
+        <v>681</v>
+      </c>
+      <c r="G3232" t="n">
+        <v>563</v>
+      </c>
+      <c r="H3232" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3233">
+      <c r="A3233" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B3233" t="n">
+        <v>15509</v>
+      </c>
+      <c r="C3233" t="n">
+        <v>11019</v>
+      </c>
+      <c r="D3233" t="n">
+        <v>251</v>
+      </c>
+      <c r="E3233" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3233" t="n">
+        <v>568</v>
+      </c>
+      <c r="G3233" t="n">
+        <v>520</v>
+      </c>
+      <c r="H3233" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3234">
+      <c r="A3234" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3234" t="n">
+        <v>1014</v>
+      </c>
+      <c r="C3234" t="n">
+        <v>628</v>
+      </c>
+      <c r="D3234" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3234" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3234" t="n">
+        <v>35</v>
+      </c>
+      <c r="G3234" t="n">
+        <v>14</v>
+      </c>
+      <c r="H3234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3235">
+      <c r="A3235" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B3235" t="n">
+        <v>7849</v>
+      </c>
+      <c r="C3235" t="n">
+        <v>4974</v>
+      </c>
+      <c r="D3235" t="n">
+        <v>115</v>
+      </c>
+      <c r="E3235" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3235" t="n">
+        <v>154</v>
+      </c>
+      <c r="G3235" t="n">
+        <v>118</v>
+      </c>
+      <c r="H3235" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3236">
+      <c r="A3236" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B3236" t="n">
+        <v>2584</v>
+      </c>
+      <c r="C3236" t="n">
+        <v>1983</v>
+      </c>
+      <c r="D3236" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3236" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3236" t="n">
+        <v>63</v>
+      </c>
+      <c r="G3236" t="n">
+        <v>52</v>
+      </c>
+      <c r="H3236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3237">
+      <c r="A3237" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B3237" t="n">
+        <v>18016</v>
+      </c>
+      <c r="C3237" t="n">
+        <v>8334</v>
+      </c>
+      <c r="D3237" t="n">
+        <v>272</v>
+      </c>
+      <c r="E3237" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3237" t="n">
+        <v>1502</v>
+      </c>
+      <c r="G3237" t="n">
+        <v>271</v>
+      </c>
+      <c r="H3237" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3238">
+      <c r="A3238" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B3238" t="n">
+        <v>4753</v>
+      </c>
+      <c r="C3238" t="n">
+        <v>2640</v>
+      </c>
+      <c r="D3238" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3238" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3238" t="n">
+        <v>160</v>
+      </c>
+      <c r="G3238" t="n">
+        <v>201</v>
+      </c>
+      <c r="H3238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3239">
+      <c r="A3239" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B3239" t="n">
+        <v>990</v>
+      </c>
+      <c r="C3239" t="n">
+        <v>730</v>
+      </c>
+      <c r="D3239" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3239" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3239" t="n">
+        <v>36</v>
+      </c>
+      <c r="H3239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3240">
+      <c r="A3240" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B3240" t="n">
+        <v>14106</v>
+      </c>
+      <c r="C3240" t="n">
+        <v>10815</v>
+      </c>
+      <c r="D3240" t="n">
+        <v>589</v>
+      </c>
+      <c r="E3240" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3240" t="n">
+        <v>245</v>
+      </c>
+      <c r="G3240" t="n">
+        <v>160</v>
+      </c>
+      <c r="H3240" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3241">
+      <c r="A3241" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B3241" t="n">
+        <v>186626</v>
+      </c>
+      <c r="C3241" t="n">
+        <v>101172</v>
+      </c>
+      <c r="D3241" t="n">
+        <v>8178</v>
+      </c>
+      <c r="E3241" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3241" t="n">
+        <v>6328</v>
+      </c>
+      <c r="G3241" t="n">
+        <v>8018</v>
+      </c>
+      <c r="H3241" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3242">
+      <c r="A3242" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B3242" t="n">
+        <v>1279</v>
+      </c>
+      <c r="C3242" t="n">
+        <v>617</v>
+      </c>
+      <c r="D3242" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3242" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3242" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3242" t="n">
+        <v>38</v>
+      </c>
+      <c r="H3242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3243">
+      <c r="A3243" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B3243" t="n">
+        <v>56</v>
+      </c>
+      <c r="C3243" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3243" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3243" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3243" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3244">
+      <c r="A3244" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B3244" t="n">
+        <v>162</v>
+      </c>
+      <c r="C3244" t="n">
+        <v>126</v>
+      </c>
+      <c r="D3244" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3244" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3244" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3244" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3245">
+      <c r="A3245" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B3245" t="n">
+        <v>501</v>
+      </c>
+      <c r="C3245" t="n">
+        <v>182</v>
+      </c>
+      <c r="D3245" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3245" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3245" t="n">
+        <v>42</v>
+      </c>
+      <c r="G3245" t="n">
+        <v>14</v>
+      </c>
+      <c r="H3245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3246">
+      <c r="A3246" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B3246" t="n">
+        <v>7545</v>
+      </c>
+      <c r="C3246" t="n">
+        <v>5502</v>
+      </c>
+      <c r="D3246" t="n">
+        <v>27</v>
+      </c>
+      <c r="E3246" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3246" t="n">
+        <v>229</v>
+      </c>
+      <c r="G3246" t="n">
+        <v>149</v>
+      </c>
+      <c r="H3246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3247">
+      <c r="A3247" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B3247" t="n">
+        <v>802</v>
+      </c>
+      <c r="C3247" t="n">
+        <v>331</v>
+      </c>
+      <c r="D3247" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3247" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3247" t="n">
+        <v>88</v>
+      </c>
+      <c r="G3247" t="n">
+        <v>59</v>
+      </c>
+      <c r="H3247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3248">
+      <c r="A3248" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B3248" t="n">
+        <v>5784</v>
+      </c>
+      <c r="C3248" t="n">
+        <v>4144</v>
+      </c>
+      <c r="D3248" t="n">
+        <v>152</v>
+      </c>
+      <c r="E3248" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3248" t="n">
+        <v>116</v>
+      </c>
+      <c r="G3248" t="n">
+        <v>277</v>
+      </c>
+      <c r="H3248" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3249">
+      <c r="A3249" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B3249" t="n">
+        <v>18662</v>
+      </c>
+      <c r="C3249" t="n">
+        <v>14948</v>
+      </c>
+      <c r="D3249" t="n">
+        <v>430</v>
+      </c>
+      <c r="E3249" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3249" t="n">
+        <v>350</v>
+      </c>
+      <c r="G3249" t="n">
+        <v>374</v>
+      </c>
+      <c r="H3249" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3250">
+      <c r="A3250" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B3250" t="n">
+        <v>102</v>
+      </c>
+      <c r="C3250" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3250" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3250" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3251">
+      <c r="A3251" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B3251" t="n">
+        <v>98392</v>
+      </c>
+      <c r="C3251" t="n">
+        <v>56021</v>
+      </c>
+      <c r="D3251" t="n">
+        <v>1321</v>
+      </c>
+      <c r="E3251" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3251" t="n">
+        <v>4343</v>
+      </c>
+      <c r="G3251" t="n">
+        <v>3095</v>
+      </c>
+      <c r="H3251" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3252">
+      <c r="A3252" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B3252" t="n">
+        <v>18570</v>
+      </c>
+      <c r="C3252" t="n">
+        <v>9069</v>
+      </c>
+      <c r="D3252" t="n">
+        <v>275</v>
+      </c>
+      <c r="E3252" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3252" t="n">
+        <v>1213</v>
+      </c>
+      <c r="G3252" t="n">
+        <v>987</v>
+      </c>
+      <c r="H3252" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3253">
+      <c r="A3253" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B3253" t="n">
+        <v>1435</v>
+      </c>
+      <c r="C3253" t="n">
+        <v>1146</v>
+      </c>
+      <c r="D3253" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3253" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3253" t="n">
+        <v>39</v>
+      </c>
+      <c r="G3253" t="n">
+        <v>53</v>
+      </c>
+      <c r="H3253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3254">
+      <c r="A3254" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B3254" t="n">
+        <v>2984</v>
+      </c>
+      <c r="C3254" t="n">
+        <v>2405</v>
+      </c>
+      <c r="D3254" t="n">
+        <v>42</v>
+      </c>
+      <c r="E3254" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3254" t="n">
+        <v>37</v>
+      </c>
+      <c r="G3254" t="n">
+        <v>88</v>
+      </c>
+      <c r="H3254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3255">
+      <c r="A3255" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B3255" t="n">
+        <v>24825</v>
+      </c>
+      <c r="C3255" t="n">
+        <v>17221</v>
+      </c>
+      <c r="D3255" t="n">
+        <v>735</v>
+      </c>
+      <c r="E3255" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3255" t="n">
+        <v>769</v>
+      </c>
+      <c r="G3255" t="n">
+        <v>592</v>
+      </c>
+      <c r="H3255" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3256">
+      <c r="A3256" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B3256" t="n">
+        <v>19819</v>
+      </c>
+      <c r="C3256" t="n">
+        <v>13037</v>
+      </c>
+      <c r="D3256" t="n">
+        <v>699</v>
+      </c>
+      <c r="E3256" t="inlineStr">
+        <is>
+          <t>03-07-2020</t>
+        </is>
+      </c>
+      <c r="F3256" t="n">
+        <v>649</v>
+      </c>
+      <c r="G3256" t="n">
+        <v>509</v>
+      </c>
+      <c r="H3256" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3257">
+      <c r="A3257" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B3257" t="n">
+        <v>116</v>
+      </c>
+      <c r="C3257" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3257" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3257" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3257" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3258">
+      <c r="A3258" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B3258" t="n">
+        <v>16934</v>
+      </c>
+      <c r="C3258" t="n">
+        <v>7632</v>
+      </c>
+      <c r="D3258" t="n">
+        <v>206</v>
+      </c>
+      <c r="E3258" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3258" t="n">
+        <v>837</v>
+      </c>
+      <c r="G3258" t="n">
+        <v>319</v>
+      </c>
+      <c r="H3258" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3259">
+      <c r="A3259" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3259" t="n">
+        <v>252</v>
+      </c>
+      <c r="C3259" t="n">
+        <v>75</v>
+      </c>
+      <c r="D3259" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3259" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3259" t="n">
+        <v>57</v>
+      </c>
+      <c r="G3259" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3260">
+      <c r="A3260" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B3260" t="n">
+        <v>9673</v>
+      </c>
+      <c r="C3260" t="n">
+        <v>6349</v>
+      </c>
+      <c r="D3260" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3260" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3260" t="n">
+        <v>660</v>
+      </c>
+      <c r="G3260" t="n">
+        <v>243</v>
+      </c>
+      <c r="H3260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3261">
+      <c r="A3261" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B3261" t="n">
+        <v>10954</v>
+      </c>
+      <c r="C3261" t="n">
+        <v>8214</v>
+      </c>
+      <c r="D3261" t="n">
+        <v>80</v>
+      </c>
+      <c r="E3261" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3261" t="n">
+        <v>483</v>
+      </c>
+      <c r="G3261" t="n">
+        <v>194</v>
+      </c>
+      <c r="H3261" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3262">
+      <c r="A3262" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B3262" t="n">
+        <v>457</v>
+      </c>
+      <c r="C3262" t="n">
+        <v>393</v>
+      </c>
+      <c r="D3262" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3262" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3262" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3262" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3263">
+      <c r="A3263" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B3263" t="n">
+        <v>3065</v>
+      </c>
+      <c r="C3263" t="n">
+        <v>2437</v>
+      </c>
+      <c r="D3263" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3263" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3263" t="n">
+        <v>52</v>
+      </c>
+      <c r="G3263" t="n">
+        <v>52</v>
+      </c>
+      <c r="H3263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3264">
+      <c r="A3264" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B3264" t="n">
+        <v>257</v>
+      </c>
+      <c r="C3264" t="n">
+        <v>96</v>
+      </c>
+      <c r="D3264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3264" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3264" t="n">
+        <v>27</v>
+      </c>
+      <c r="G3264" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3265">
+      <c r="A3265" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B3265" t="n">
+        <v>94695</v>
+      </c>
+      <c r="C3265" t="n">
+        <v>65624</v>
+      </c>
+      <c r="D3265" t="n">
+        <v>2923</v>
+      </c>
+      <c r="E3265" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3265" t="n">
+        <v>2520</v>
+      </c>
+      <c r="G3265" t="n">
+        <v>2617</v>
+      </c>
+      <c r="H3265" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3266">
+      <c r="A3266" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B3266" t="n">
+        <v>1482</v>
+      </c>
+      <c r="C3266" t="n">
+        <v>734</v>
+      </c>
+      <c r="D3266" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3266" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3266" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3266" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3267">
+      <c r="A3267" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B3267" t="n">
+        <v>34600</v>
+      </c>
+      <c r="C3267" t="n">
+        <v>24933</v>
+      </c>
+      <c r="D3267" t="n">
+        <v>1904</v>
+      </c>
+      <c r="E3267" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3267" t="n">
+        <v>687</v>
+      </c>
+      <c r="G3267" t="n">
+        <v>340</v>
+      </c>
+      <c r="H3267" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3268">
+      <c r="A3268" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B3268" t="n">
+        <v>16003</v>
+      </c>
+      <c r="C3268" t="n">
+        <v>11691</v>
+      </c>
+      <c r="D3268" t="n">
+        <v>255</v>
+      </c>
+      <c r="E3268" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3268" t="n">
+        <v>494</v>
+      </c>
+      <c r="G3268" t="n">
+        <v>672</v>
+      </c>
+      <c r="H3268" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3269">
+      <c r="A3269" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3269" t="n">
+        <v>1033</v>
+      </c>
+      <c r="C3269" t="n">
+        <v>667</v>
+      </c>
+      <c r="D3269" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3269" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3269" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3269" t="n">
+        <v>39</v>
+      </c>
+      <c r="H3269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3270">
+      <c r="A3270" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B3270" t="n">
+        <v>8019</v>
+      </c>
+      <c r="C3270" t="n">
+        <v>5075</v>
+      </c>
+      <c r="D3270" t="n">
+        <v>119</v>
+      </c>
+      <c r="E3270" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3270" t="n">
+        <v>170</v>
+      </c>
+      <c r="G3270" t="n">
+        <v>101</v>
+      </c>
+      <c r="H3270" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3271">
+      <c r="A3271" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B3271" t="n">
+        <v>2695</v>
+      </c>
+      <c r="C3271" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D3271" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3271" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3271" t="n">
+        <v>111</v>
+      </c>
+      <c r="G3271" t="n">
+        <v>18</v>
+      </c>
+      <c r="H3271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3272">
+      <c r="A3272" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B3272" t="n">
+        <v>19710</v>
+      </c>
+      <c r="C3272" t="n">
+        <v>8805</v>
+      </c>
+      <c r="D3272" t="n">
+        <v>293</v>
+      </c>
+      <c r="E3272" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3272" t="n">
+        <v>1694</v>
+      </c>
+      <c r="G3272" t="n">
+        <v>471</v>
+      </c>
+      <c r="H3272" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3273">
+      <c r="A3273" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B3273" t="n">
+        <v>4964</v>
+      </c>
+      <c r="C3273" t="n">
+        <v>2841</v>
+      </c>
+      <c r="D3273" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3273" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3273" t="n">
+        <v>211</v>
+      </c>
+      <c r="G3273" t="n">
+        <v>201</v>
+      </c>
+      <c r="H3273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3274">
+      <c r="A3274" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B3274" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C3274" t="n">
+        <v>777</v>
+      </c>
+      <c r="D3274" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3274" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3274" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3274" t="n">
+        <v>47</v>
+      </c>
+      <c r="H3274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3275">
+      <c r="A3275" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B3275" t="n">
+        <v>14297</v>
+      </c>
+      <c r="C3275" t="n">
+        <v>11049</v>
+      </c>
+      <c r="D3275" t="n">
+        <v>593</v>
+      </c>
+      <c r="E3275" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3275" t="n">
+        <v>191</v>
+      </c>
+      <c r="G3275" t="n">
+        <v>234</v>
+      </c>
+      <c r="H3275" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3276">
+      <c r="A3276" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B3276" t="n">
+        <v>192990</v>
+      </c>
+      <c r="C3276" t="n">
+        <v>104687</v>
+      </c>
+      <c r="D3276" t="n">
+        <v>8376</v>
+      </c>
+      <c r="E3276" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3276" t="n">
+        <v>6364</v>
+      </c>
+      <c r="G3276" t="n">
+        <v>3515</v>
+      </c>
+      <c r="H3276" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3277">
+      <c r="A3277" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B3277" t="n">
+        <v>1316</v>
+      </c>
+      <c r="C3277" t="n">
+        <v>639</v>
+      </c>
+      <c r="D3277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3277" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3277" t="n">
+        <v>37</v>
+      </c>
+      <c r="G3277" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3278">
+      <c r="A3278" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B3278" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3278" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3278" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3278" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3278" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3278" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3279">
+      <c r="A3279" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B3279" t="n">
+        <v>162</v>
+      </c>
+      <c r="C3279" t="n">
+        <v>126</v>
+      </c>
+      <c r="D3279" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3279" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3279" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3279" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3280">
+      <c r="A3280" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B3280" t="n">
+        <v>539</v>
+      </c>
+      <c r="C3280" t="n">
+        <v>228</v>
+      </c>
+      <c r="D3280" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3280" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3280" t="n">
+        <v>38</v>
+      </c>
+      <c r="G3280" t="n">
+        <v>46</v>
+      </c>
+      <c r="H3280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3281">
+      <c r="A3281" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B3281" t="n">
+        <v>8106</v>
+      </c>
+      <c r="C3281" t="n">
+        <v>5705</v>
+      </c>
+      <c r="D3281" t="n">
+        <v>29</v>
+      </c>
+      <c r="E3281" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3281" t="n">
+        <v>561</v>
+      </c>
+      <c r="G3281" t="n">
+        <v>203</v>
+      </c>
+      <c r="H3281" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3282">
+      <c r="A3282" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B3282" t="n">
+        <v>802</v>
+      </c>
+      <c r="C3282" t="n">
+        <v>331</v>
+      </c>
+      <c r="D3282" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3282" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3282" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3282" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3283">
+      <c r="A3283" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B3283" t="n">
+        <v>5937</v>
+      </c>
+      <c r="C3283" t="n">
+        <v>4266</v>
+      </c>
+      <c r="D3283" t="n">
+        <v>157</v>
+      </c>
+      <c r="E3283" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3283" t="n">
+        <v>153</v>
+      </c>
+      <c r="G3283" t="n">
+        <v>122</v>
+      </c>
+      <c r="H3283" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3284">
+      <c r="A3284" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B3284" t="n">
+        <v>19052</v>
+      </c>
+      <c r="C3284" t="n">
+        <v>15281</v>
+      </c>
+      <c r="D3284" t="n">
+        <v>440</v>
+      </c>
+      <c r="E3284" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3284" t="n">
+        <v>390</v>
+      </c>
+      <c r="G3284" t="n">
+        <v>333</v>
+      </c>
+      <c r="H3284" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3285">
+      <c r="A3285" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B3285" t="n">
+        <v>102</v>
+      </c>
+      <c r="C3285" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3285" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3285" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3285" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3285" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3286">
+      <c r="A3286" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B3286" t="n">
+        <v>102721</v>
+      </c>
+      <c r="C3286" t="n">
+        <v>58378</v>
+      </c>
+      <c r="D3286" t="n">
+        <v>1385</v>
+      </c>
+      <c r="E3286" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3286" t="n">
+        <v>4329</v>
+      </c>
+      <c r="G3286" t="n">
+        <v>2357</v>
+      </c>
+      <c r="H3286" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3287">
+      <c r="A3287" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B3287" t="n">
+        <v>20462</v>
+      </c>
+      <c r="C3287" t="n">
+        <v>10195</v>
+      </c>
+      <c r="D3287" t="n">
+        <v>283</v>
+      </c>
+      <c r="E3287" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3287" t="n">
+        <v>1892</v>
+      </c>
+      <c r="G3287" t="n">
+        <v>1126</v>
+      </c>
+      <c r="H3287" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3288">
+      <c r="A3288" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B3288" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C3288" t="n">
+        <v>1199</v>
+      </c>
+      <c r="D3288" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3288" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3288" t="n">
+        <v>90</v>
+      </c>
+      <c r="G3288" t="n">
+        <v>53</v>
+      </c>
+      <c r="H3288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3289">
+      <c r="A3289" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B3289" t="n">
+        <v>3048</v>
+      </c>
+      <c r="C3289" t="n">
+        <v>2481</v>
+      </c>
+      <c r="D3289" t="n">
+        <v>42</v>
+      </c>
+      <c r="E3289" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3289" t="n">
+        <v>64</v>
+      </c>
+      <c r="G3289" t="n">
+        <v>76</v>
+      </c>
+      <c r="H3289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3290">
+      <c r="A3290" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B3290" t="n">
+        <v>25797</v>
+      </c>
+      <c r="C3290" t="n">
+        <v>17597</v>
+      </c>
+      <c r="D3290" t="n">
+        <v>749</v>
+      </c>
+      <c r="E3290" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3290" t="n">
+        <v>972</v>
+      </c>
+      <c r="G3290" t="n">
+        <v>376</v>
+      </c>
+      <c r="H3290" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3291">
+      <c r="A3291" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B3291" t="n">
+        <v>20488</v>
+      </c>
+      <c r="C3291" t="n">
+        <v>13571</v>
+      </c>
+      <c r="D3291" t="n">
+        <v>717</v>
+      </c>
+      <c r="E3291" t="inlineStr">
+        <is>
+          <t>04-07-2020</t>
+        </is>
+      </c>
+      <c r="F3291" t="n">
+        <v>669</v>
+      </c>
+      <c r="G3291" t="n">
+        <v>534</v>
+      </c>
+      <c r="H3291" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3292">
+      <c r="A3292" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B3292" t="n">
+        <v>119</v>
+      </c>
+      <c r="C3292" t="n">
+        <v>66</v>
+      </c>
+      <c r="D3292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3292" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3292" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3292" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3293">
+      <c r="A3293" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B3293" t="n">
+        <v>17699</v>
+      </c>
+      <c r="C3293" t="n">
+        <v>8008</v>
+      </c>
+      <c r="D3293" t="n">
+        <v>218</v>
+      </c>
+      <c r="E3293" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3293" t="n">
+        <v>765</v>
+      </c>
+      <c r="G3293" t="n">
+        <v>376</v>
+      </c>
+      <c r="H3293" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3294">
+      <c r="A3294" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3294" t="n">
+        <v>259</v>
+      </c>
+      <c r="C3294" t="n">
+        <v>76</v>
+      </c>
+      <c r="D3294" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3294" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3294" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3294" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3295">
+      <c r="A3295" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B3295" t="n">
+        <v>10668</v>
+      </c>
+      <c r="C3295" t="n">
+        <v>6657</v>
+      </c>
+      <c r="D3295" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3295" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3295" t="n">
+        <v>995</v>
+      </c>
+      <c r="G3295" t="n">
+        <v>308</v>
+      </c>
+      <c r="H3295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3296">
+      <c r="A3296" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B3296" t="n">
+        <v>11700</v>
+      </c>
+      <c r="C3296" t="n">
+        <v>8686</v>
+      </c>
+      <c r="D3296" t="n">
+        <v>89</v>
+      </c>
+      <c r="E3296" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3296" t="n">
+        <v>746</v>
+      </c>
+      <c r="G3296" t="n">
+        <v>472</v>
+      </c>
+      <c r="H3296" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3297">
+      <c r="A3297" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B3297" t="n">
+        <v>460</v>
+      </c>
+      <c r="C3297" t="n">
+        <v>395</v>
+      </c>
+      <c r="D3297" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3297" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3297" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3297" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3298">
+      <c r="A3298" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B3298" t="n">
+        <v>3161</v>
+      </c>
+      <c r="C3298" t="n">
+        <v>2549</v>
+      </c>
+      <c r="D3298" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3298" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3298" t="n">
+        <v>96</v>
+      </c>
+      <c r="G3298" t="n">
+        <v>112</v>
+      </c>
+      <c r="H3298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3299">
+      <c r="A3299" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B3299" t="n">
+        <v>271</v>
+      </c>
+      <c r="C3299" t="n">
+        <v>96</v>
+      </c>
+      <c r="D3299" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3299" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3299" t="n">
+        <v>14</v>
+      </c>
+      <c r="G3299" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3300">
+      <c r="A3300" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B3300" t="n">
+        <v>97200</v>
+      </c>
+      <c r="C3300" t="n">
+        <v>68256</v>
+      </c>
+      <c r="D3300" t="n">
+        <v>3004</v>
+      </c>
+      <c r="E3300" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3300" t="n">
+        <v>2505</v>
+      </c>
+      <c r="G3300" t="n">
+        <v>2632</v>
+      </c>
+      <c r="H3300" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3301">
+      <c r="A3301" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B3301" t="n">
+        <v>1684</v>
+      </c>
+      <c r="C3301" t="n">
+        <v>825</v>
+      </c>
+      <c r="D3301" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3301" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3301" t="n">
+        <v>202</v>
+      </c>
+      <c r="G3301" t="n">
+        <v>91</v>
+      </c>
+      <c r="H3301" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3302">
+      <c r="A3302" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B3302" t="n">
+        <v>35312</v>
+      </c>
+      <c r="C3302" t="n">
+        <v>25406</v>
+      </c>
+      <c r="D3302" t="n">
+        <v>1925</v>
+      </c>
+      <c r="E3302" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3302" t="n">
+        <v>712</v>
+      </c>
+      <c r="G3302" t="n">
+        <v>473</v>
+      </c>
+      <c r="H3302" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3303">
+      <c r="A3303" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B3303" t="n">
+        <v>16548</v>
+      </c>
+      <c r="C3303" t="n">
+        <v>12257</v>
+      </c>
+      <c r="D3303" t="n">
+        <v>260</v>
+      </c>
+      <c r="E3303" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3303" t="n">
+        <v>545</v>
+      </c>
+      <c r="G3303" t="n">
+        <v>566</v>
+      </c>
+      <c r="H3303" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3304">
+      <c r="A3304" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3304" t="n">
+        <v>1046</v>
+      </c>
+      <c r="C3304" t="n">
+        <v>704</v>
+      </c>
+      <c r="D3304" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3304" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3304" t="n">
+        <v>13</v>
+      </c>
+      <c r="G3304" t="n">
+        <v>37</v>
+      </c>
+      <c r="H3304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3305">
+      <c r="A3305" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B3305" t="n">
+        <v>8246</v>
+      </c>
+      <c r="C3305" t="n">
+        <v>5143</v>
+      </c>
+      <c r="D3305" t="n">
+        <v>127</v>
+      </c>
+      <c r="E3305" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3305" t="n">
+        <v>227</v>
+      </c>
+      <c r="G3305" t="n">
+        <v>68</v>
+      </c>
+      <c r="H3305" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3306">
+      <c r="A3306" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B3306" t="n">
+        <v>2739</v>
+      </c>
+      <c r="C3306" t="n">
+        <v>2035</v>
+      </c>
+      <c r="D3306" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3306" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3306" t="n">
+        <v>44</v>
+      </c>
+      <c r="G3306" t="n">
+        <v>34</v>
+      </c>
+      <c r="H3306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3307">
+      <c r="A3307" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B3307" t="n">
+        <v>21549</v>
+      </c>
+      <c r="C3307" t="n">
+        <v>9244</v>
+      </c>
+      <c r="D3307" t="n">
+        <v>335</v>
+      </c>
+      <c r="E3307" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3307" t="n">
+        <v>1839</v>
+      </c>
+      <c r="G3307" t="n">
+        <v>439</v>
+      </c>
+      <c r="H3307" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3308">
+      <c r="A3308" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B3308" t="n">
+        <v>5204</v>
+      </c>
+      <c r="C3308" t="n">
+        <v>3048</v>
+      </c>
+      <c r="D3308" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3308" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3308" t="n">
+        <v>240</v>
+      </c>
+      <c r="G3308" t="n">
+        <v>207</v>
+      </c>
+      <c r="H3308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3309">
+      <c r="A3309" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B3309" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C3309" t="n">
+        <v>826</v>
+      </c>
+      <c r="D3309" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3309" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3309" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3309" t="n">
+        <v>49</v>
+      </c>
+      <c r="H3309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3310">
+      <c r="A3310" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B3310" t="n">
+        <v>14604</v>
+      </c>
+      <c r="C3310" t="n">
+        <v>11234</v>
+      </c>
+      <c r="D3310" t="n">
+        <v>598</v>
+      </c>
+      <c r="E3310" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3310" t="n">
+        <v>307</v>
+      </c>
+      <c r="G3310" t="n">
+        <v>185</v>
+      </c>
+      <c r="H3310" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3311">
+      <c r="A3311" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B3311" t="n">
+        <v>200064</v>
+      </c>
+      <c r="C3311" t="n">
+        <v>108082</v>
+      </c>
+      <c r="D3311" t="n">
+        <v>8671</v>
+      </c>
+      <c r="E3311" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3311" t="n">
+        <v>7074</v>
+      </c>
+      <c r="G3311" t="n">
+        <v>3395</v>
+      </c>
+      <c r="H3311" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3312">
+      <c r="A3312" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B3312" t="n">
+        <v>1325</v>
+      </c>
+      <c r="C3312" t="n">
+        <v>667</v>
+      </c>
+      <c r="D3312" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3312" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3312" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3312" t="n">
+        <v>28</v>
+      </c>
+      <c r="H3312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3313">
+      <c r="A3313" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B3313" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3313" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3313" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3313" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3313" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3313" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3314">
+      <c r="A3314" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B3314" t="n">
+        <v>164</v>
+      </c>
+      <c r="C3314" t="n">
+        <v>130</v>
+      </c>
+      <c r="D3314" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3314" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3314" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3314" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3315">
+      <c r="A3315" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B3315" t="n">
+        <v>563</v>
+      </c>
+      <c r="C3315" t="n">
+        <v>228</v>
+      </c>
+      <c r="D3315" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3315" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3315" t="n">
+        <v>24</v>
+      </c>
+      <c r="G3315" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3316">
+      <c r="A3316" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B3316" t="n">
+        <v>8601</v>
+      </c>
+      <c r="C3316" t="n">
+        <v>5934</v>
+      </c>
+      <c r="D3316" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3316" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3316" t="n">
+        <v>495</v>
+      </c>
+      <c r="G3316" t="n">
+        <v>229</v>
+      </c>
+      <c r="H3316" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3317">
+      <c r="A3317" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B3317" t="n">
+        <v>802</v>
+      </c>
+      <c r="C3317" t="n">
+        <v>331</v>
+      </c>
+      <c r="D3317" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3317" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3317" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3317" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3318">
+      <c r="A3318" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B3318" t="n">
+        <v>6109</v>
+      </c>
+      <c r="C3318" t="n">
+        <v>4306</v>
+      </c>
+      <c r="D3318" t="n">
+        <v>162</v>
+      </c>
+      <c r="E3318" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3318" t="n">
+        <v>172</v>
+      </c>
+      <c r="G3318" t="n">
+        <v>40</v>
+      </c>
+      <c r="H3318" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3319">
+      <c r="A3319" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B3319" t="n">
+        <v>19532</v>
+      </c>
+      <c r="C3319" t="n">
+        <v>15640</v>
+      </c>
+      <c r="D3319" t="n">
+        <v>447</v>
+      </c>
+      <c r="E3319" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3319" t="n">
+        <v>480</v>
+      </c>
+      <c r="G3319" t="n">
+        <v>359</v>
+      </c>
+      <c r="H3319" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3320">
+      <c r="A3320" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B3320" t="n">
+        <v>103</v>
+      </c>
+      <c r="C3320" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3320" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3320" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3320" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3320" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3321">
+      <c r="A3321" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B3321" t="n">
+        <v>107001</v>
+      </c>
+      <c r="C3321" t="n">
+        <v>60592</v>
+      </c>
+      <c r="D3321" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E3321" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3321" t="n">
+        <v>4280</v>
+      </c>
+      <c r="G3321" t="n">
+        <v>2214</v>
+      </c>
+      <c r="H3321" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3322">
+      <c r="A3322" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B3322" t="n">
+        <v>22312</v>
+      </c>
+      <c r="C3322" t="n">
+        <v>11537</v>
+      </c>
+      <c r="D3322" t="n">
+        <v>288</v>
+      </c>
+      <c r="E3322" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3322" t="n">
+        <v>1850</v>
+      </c>
+      <c r="G3322" t="n">
+        <v>1342</v>
+      </c>
+      <c r="H3322" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3323">
+      <c r="A3323" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B3323" t="n">
+        <v>1546</v>
+      </c>
+      <c r="C3323" t="n">
+        <v>1202</v>
+      </c>
+      <c r="D3323" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3323" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3323" t="n">
+        <v>21</v>
+      </c>
+      <c r="G3323" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3324">
+      <c r="A3324" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B3324" t="n">
+        <v>3093</v>
+      </c>
+      <c r="C3324" t="n">
+        <v>2502</v>
+      </c>
+      <c r="D3324" t="n">
+        <v>42</v>
+      </c>
+      <c r="E3324" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3324" t="n">
+        <v>45</v>
+      </c>
+      <c r="G3324" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3325">
+      <c r="A3325" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B3325" t="n">
+        <v>26554</v>
+      </c>
+      <c r="C3325" t="n">
+        <v>18154</v>
+      </c>
+      <c r="D3325" t="n">
+        <v>773</v>
+      </c>
+      <c r="E3325" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3325" t="n">
+        <v>757</v>
+      </c>
+      <c r="G3325" t="n">
+        <v>557</v>
+      </c>
+      <c r="H3325" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3326">
+      <c r="A3326" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B3326" t="n">
+        <v>21231</v>
+      </c>
+      <c r="C3326" t="n">
+        <v>14166</v>
+      </c>
+      <c r="D3326" t="n">
+        <v>736</v>
+      </c>
+      <c r="E3326" t="inlineStr">
+        <is>
+          <t>05-07-2020</t>
+        </is>
+      </c>
+      <c r="F3326" t="n">
+        <v>743</v>
+      </c>
+      <c r="G3326" t="n">
+        <v>595</v>
+      </c>
+      <c r="H3326" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3327">
+      <c r="A3327" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B3327" t="n">
+        <v>125</v>
+      </c>
+      <c r="C3327" t="n">
+        <v>72</v>
+      </c>
+      <c r="D3327" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3327" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3327" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3327" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3328">
+      <c r="A3328" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B3328" t="n">
+        <v>18697</v>
+      </c>
+      <c r="C3328" t="n">
+        <v>8422</v>
+      </c>
+      <c r="D3328" t="n">
+        <v>232</v>
+      </c>
+      <c r="E3328" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3328" t="n">
+        <v>998</v>
+      </c>
+      <c r="G3328" t="n">
+        <v>414</v>
+      </c>
+      <c r="H3328" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3329">
+      <c r="A3329" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3329" t="n">
+        <v>269</v>
+      </c>
+      <c r="C3329" t="n">
+        <v>78</v>
+      </c>
+      <c r="D3329" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3329" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3329" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3329" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3330">
+      <c r="A3330" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B3330" t="n">
+        <v>11388</v>
+      </c>
+      <c r="C3330" t="n">
+        <v>7125</v>
+      </c>
+      <c r="D3330" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3330" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3330" t="n">
+        <v>720</v>
+      </c>
+      <c r="G3330" t="n">
+        <v>468</v>
+      </c>
+      <c r="H3330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3331">
+      <c r="A3331" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B3331" t="n">
+        <v>11876</v>
+      </c>
+      <c r="C3331" t="n">
+        <v>8765</v>
+      </c>
+      <c r="D3331" t="n">
+        <v>95</v>
+      </c>
+      <c r="E3331" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3331" t="n">
+        <v>176</v>
+      </c>
+      <c r="G3331" t="n">
+        <v>79</v>
+      </c>
+      <c r="H3331" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3332">
+      <c r="A3332" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B3332" t="n">
+        <v>466</v>
+      </c>
+      <c r="C3332" t="n">
+        <v>395</v>
+      </c>
+      <c r="D3332" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3332" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3332" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3332" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3333">
+      <c r="A3333" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B3333" t="n">
+        <v>3207</v>
+      </c>
+      <c r="C3333" t="n">
+        <v>2601</v>
+      </c>
+      <c r="D3333" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3333" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3333" t="n">
+        <v>46</v>
+      </c>
+      <c r="G3333" t="n">
+        <v>52</v>
+      </c>
+      <c r="H3333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3334">
+      <c r="A3334" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B3334" t="n">
+        <v>271</v>
+      </c>
+      <c r="C3334" t="n">
+        <v>106</v>
+      </c>
+      <c r="D3334" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3334" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3334" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3334" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3335">
+      <c r="A3335" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B3335" t="n">
+        <v>99444</v>
+      </c>
+      <c r="C3335" t="n">
+        <v>71339</v>
+      </c>
+      <c r="D3335" t="n">
+        <v>3067</v>
+      </c>
+      <c r="E3335" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3335" t="n">
+        <v>2244</v>
+      </c>
+      <c r="G3335" t="n">
+        <v>3083</v>
+      </c>
+      <c r="H3335" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3336">
+      <c r="A3336" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B3336" t="n">
+        <v>1761</v>
+      </c>
+      <c r="C3336" t="n">
+        <v>936</v>
+      </c>
+      <c r="D3336" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3336" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3336" t="n">
+        <v>77</v>
+      </c>
+      <c r="G3336" t="n">
+        <v>111</v>
+      </c>
+      <c r="H3336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3337">
+      <c r="A3337" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B3337" t="n">
+        <v>36037</v>
+      </c>
+      <c r="C3337" t="n">
+        <v>25892</v>
+      </c>
+      <c r="D3337" t="n">
+        <v>1943</v>
+      </c>
+      <c r="E3337" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3337" t="n">
+        <v>725</v>
+      </c>
+      <c r="G3337" t="n">
+        <v>486</v>
+      </c>
+      <c r="H3337" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3338">
+      <c r="A3338" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B3338" t="n">
+        <v>17005</v>
+      </c>
+      <c r="C3338" t="n">
+        <v>12944</v>
+      </c>
+      <c r="D3338" t="n">
+        <v>265</v>
+      </c>
+      <c r="E3338" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3338" t="n">
+        <v>457</v>
+      </c>
+      <c r="G3338" t="n">
+        <v>687</v>
+      </c>
+      <c r="H3338" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3339">
+      <c r="A3339" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3339" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C3339" t="n">
+        <v>737</v>
+      </c>
+      <c r="D3339" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3339" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3339" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3339" t="n">
+        <v>33</v>
+      </c>
+      <c r="H3339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3340">
+      <c r="A3340" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B3340" t="n">
+        <v>8429</v>
+      </c>
+      <c r="C3340" t="n">
+        <v>5255</v>
+      </c>
+      <c r="D3340" t="n">
+        <v>132</v>
+      </c>
+      <c r="E3340" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3340" t="n">
+        <v>183</v>
+      </c>
+      <c r="G3340" t="n">
+        <v>112</v>
+      </c>
+      <c r="H3340" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3341">
+      <c r="A3341" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B3341" t="n">
+        <v>2781</v>
+      </c>
+      <c r="C3341" t="n">
+        <v>2045</v>
+      </c>
+      <c r="D3341" t="n">
+        <v>19</v>
+      </c>
+      <c r="E3341" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3341" t="n">
+        <v>42</v>
+      </c>
+      <c r="G3341" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3341" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3342">
+      <c r="A3342" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B3342" t="n">
+        <v>23474</v>
+      </c>
+      <c r="C3342" t="n">
+        <v>9847</v>
+      </c>
+      <c r="D3342" t="n">
+        <v>372</v>
+      </c>
+      <c r="E3342" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3342" t="n">
+        <v>1925</v>
+      </c>
+      <c r="G3342" t="n">
+        <v>603</v>
+      </c>
+      <c r="H3342" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3343">
+      <c r="A3343" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B3343" t="n">
+        <v>5429</v>
+      </c>
+      <c r="C3343" t="n">
+        <v>3174</v>
+      </c>
+      <c r="D3343" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3343" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3343" t="n">
+        <v>225</v>
+      </c>
+      <c r="G3343" t="n">
+        <v>126</v>
+      </c>
+      <c r="H3343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3344">
+      <c r="A3344" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B3344" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C3344" t="n">
+        <v>826</v>
+      </c>
+      <c r="D3344" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3344" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3344" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3344" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3345">
+      <c r="A3345" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B3345" t="n">
+        <v>14930</v>
+      </c>
+      <c r="C3345" t="n">
+        <v>11411</v>
+      </c>
+      <c r="D3345" t="n">
+        <v>608</v>
+      </c>
+      <c r="E3345" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3345" t="n">
+        <v>326</v>
+      </c>
+      <c r="G3345" t="n">
+        <v>177</v>
+      </c>
+      <c r="H3345" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3346">
+      <c r="A3346" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B3346" t="n">
+        <v>206619</v>
+      </c>
+      <c r="C3346" t="n">
+        <v>111740</v>
+      </c>
+      <c r="D3346" t="n">
+        <v>8822</v>
+      </c>
+      <c r="E3346" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3346" t="n">
+        <v>6555</v>
+      </c>
+      <c r="G3346" t="n">
+        <v>3658</v>
+      </c>
+      <c r="H3346" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3347">
+      <c r="A3347" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B3347" t="n">
+        <v>1366</v>
+      </c>
+      <c r="C3347" t="n">
+        <v>688</v>
+      </c>
+      <c r="D3347" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3347" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3347" t="n">
+        <v>41</v>
+      </c>
+      <c r="G3347" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3348">
+      <c r="A3348" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B3348" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3348" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3348" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3348" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3348" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3348" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3349">
+      <c r="A3349" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B3349" t="n">
+        <v>186</v>
+      </c>
+      <c r="C3349" t="n">
+        <v>130</v>
+      </c>
+      <c r="D3349" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3349" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3349" t="n">
+        <v>22</v>
+      </c>
+      <c r="G3349" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3350">
+      <c r="A3350" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B3350" t="n">
+        <v>590</v>
+      </c>
+      <c r="C3350" t="n">
+        <v>231</v>
+      </c>
+      <c r="D3350" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3350" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3350" t="n">
+        <v>27</v>
+      </c>
+      <c r="G3350" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3351">
+      <c r="A3351" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B3351" t="n">
+        <v>9070</v>
+      </c>
+      <c r="C3351" t="n">
+        <v>6224</v>
+      </c>
+      <c r="D3351" t="n">
+        <v>36</v>
+      </c>
+      <c r="E3351" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3351" t="n">
+        <v>469</v>
+      </c>
+      <c r="G3351" t="n">
+        <v>290</v>
+      </c>
+      <c r="H3351" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3352">
+      <c r="A3352" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B3352" t="n">
+        <v>802</v>
+      </c>
+      <c r="C3352" t="n">
+        <v>331</v>
+      </c>
+      <c r="D3352" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3352" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3352" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3352" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3353">
+      <c r="A3353" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B3353" t="n">
+        <v>6283</v>
+      </c>
+      <c r="C3353" t="n">
+        <v>4408</v>
+      </c>
+      <c r="D3353" t="n">
+        <v>164</v>
+      </c>
+      <c r="E3353" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3353" t="n">
+        <v>174</v>
+      </c>
+      <c r="G3353" t="n">
+        <v>102</v>
+      </c>
+      <c r="H3353" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3354">
+      <c r="A3354" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B3354" t="n">
+        <v>20164</v>
+      </c>
+      <c r="C3354" t="n">
+        <v>15928</v>
+      </c>
+      <c r="D3354" t="n">
+        <v>456</v>
+      </c>
+      <c r="E3354" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3354" t="n">
+        <v>632</v>
+      </c>
+      <c r="G3354" t="n">
+        <v>288</v>
+      </c>
+      <c r="H3354" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3355">
+      <c r="A3355" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B3355" t="n">
+        <v>123</v>
+      </c>
+      <c r="C3355" t="n">
+        <v>61</v>
+      </c>
+      <c r="D3355" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3355" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3355" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3355" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3356">
+      <c r="A3356" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B3356" t="n">
+        <v>111151</v>
+      </c>
+      <c r="C3356" t="n">
+        <v>62778</v>
+      </c>
+      <c r="D3356" t="n">
+        <v>1510</v>
+      </c>
+      <c r="E3356" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3356" t="n">
+        <v>4150</v>
+      </c>
+      <c r="G3356" t="n">
+        <v>2186</v>
+      </c>
+      <c r="H3356" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3357">
+      <c r="A3357" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B3357" t="n">
+        <v>23902</v>
+      </c>
+      <c r="C3357" t="n">
+        <v>12703</v>
+      </c>
+      <c r="D3357" t="n">
+        <v>295</v>
+      </c>
+      <c r="E3357" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3357" t="n">
+        <v>1590</v>
+      </c>
+      <c r="G3357" t="n">
+        <v>1166</v>
+      </c>
+      <c r="H3357" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3358">
+      <c r="A3358" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B3358" t="n">
+        <v>1568</v>
+      </c>
+      <c r="C3358" t="n">
+        <v>1202</v>
+      </c>
+      <c r="D3358" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3358" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3358" t="n">
+        <v>22</v>
+      </c>
+      <c r="G3358" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3359">
+      <c r="A3359" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B3359" t="n">
+        <v>3124</v>
+      </c>
+      <c r="C3359" t="n">
+        <v>2524</v>
+      </c>
+      <c r="D3359" t="n">
+        <v>42</v>
+      </c>
+      <c r="E3359" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3359" t="n">
+        <v>31</v>
+      </c>
+      <c r="G3359" t="n">
+        <v>22</v>
+      </c>
+      <c r="H3359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3360">
+      <c r="A3360" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B3360" t="n">
+        <v>27707</v>
+      </c>
+      <c r="C3360" t="n">
+        <v>18761</v>
+      </c>
+      <c r="D3360" t="n">
+        <v>785</v>
+      </c>
+      <c r="E3360" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3360" t="n">
+        <v>1153</v>
+      </c>
+      <c r="G3360" t="n">
+        <v>607</v>
+      </c>
+      <c r="H3360" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3361">
+      <c r="A3361" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B3361" t="n">
+        <v>22126</v>
+      </c>
+      <c r="C3361" t="n">
+        <v>14711</v>
+      </c>
+      <c r="D3361" t="n">
+        <v>757</v>
+      </c>
+      <c r="E3361" t="inlineStr">
+        <is>
+          <t>06-07-2020</t>
+        </is>
+      </c>
+      <c r="F3361" t="n">
+        <v>895</v>
+      </c>
+      <c r="G3361" t="n">
+        <v>545</v>
+      </c>
+      <c r="H3361" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3362">
+      <c r="A3362" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B3362" t="n">
+        <v>141</v>
+      </c>
+      <c r="C3362" t="n">
+        <v>74</v>
+      </c>
+      <c r="D3362" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3362" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3362" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3362" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3363">
+      <c r="A3363" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B3363" t="n">
+        <v>20019</v>
+      </c>
+      <c r="C3363" t="n">
+        <v>8920</v>
+      </c>
+      <c r="D3363" t="n">
+        <v>239</v>
+      </c>
+      <c r="E3363" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3363" t="n">
+        <v>1322</v>
+      </c>
+      <c r="G3363" t="n">
+        <v>498</v>
+      </c>
+      <c r="H3363" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3364">
+      <c r="A3364" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3364" t="n">
+        <v>270</v>
+      </c>
+      <c r="C3364" t="n">
+        <v>92</v>
+      </c>
+      <c r="D3364" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3364" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3364" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3364" t="n">
+        <v>14</v>
+      </c>
+      <c r="H3364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3365">
+      <c r="A3365" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B3365" t="n">
+        <v>12160</v>
+      </c>
+      <c r="C3365" t="n">
+        <v>7882</v>
+      </c>
+      <c r="D3365" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3365" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3365" t="n">
+        <v>772</v>
+      </c>
+      <c r="G3365" t="n">
+        <v>757</v>
+      </c>
+      <c r="H3365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3366">
+      <c r="A3366" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B3366" t="n">
+        <v>12125</v>
+      </c>
+      <c r="C3366" t="n">
+        <v>8997</v>
+      </c>
+      <c r="D3366" t="n">
+        <v>97</v>
+      </c>
+      <c r="E3366" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3366" t="n">
+        <v>249</v>
+      </c>
+      <c r="G3366" t="n">
+        <v>232</v>
+      </c>
+      <c r="H3366" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3367">
+      <c r="A3367" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B3367" t="n">
+        <v>489</v>
+      </c>
+      <c r="C3367" t="n">
+        <v>401</v>
+      </c>
+      <c r="D3367" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3367" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3367" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3367" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3368">
+      <c r="A3368" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B3368" t="n">
+        <v>3305</v>
+      </c>
+      <c r="C3368" t="n">
+        <v>2667</v>
+      </c>
+      <c r="D3368" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3368" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3368" t="n">
+        <v>98</v>
+      </c>
+      <c r="G3368" t="n">
+        <v>66</v>
+      </c>
+      <c r="H3368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3369">
+      <c r="A3369" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B3369" t="n">
+        <v>297</v>
+      </c>
+      <c r="C3369" t="n">
+        <v>114</v>
+      </c>
+      <c r="D3369" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3369" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3369" t="n">
+        <v>26</v>
+      </c>
+      <c r="G3369" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3370">
+      <c r="A3370" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B3370" t="n">
+        <v>100823</v>
+      </c>
+      <c r="C3370" t="n">
+        <v>72088</v>
+      </c>
+      <c r="D3370" t="n">
+        <v>3115</v>
+      </c>
+      <c r="E3370" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3370" t="n">
+        <v>1379</v>
+      </c>
+      <c r="G3370" t="n">
+        <v>749</v>
+      </c>
+      <c r="H3370" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3371">
+      <c r="A3371" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B3371" t="n">
+        <v>1813</v>
+      </c>
+      <c r="C3371" t="n">
+        <v>1061</v>
+      </c>
+      <c r="D3371" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3371" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3371" t="n">
+        <v>52</v>
+      </c>
+      <c r="G3371" t="n">
+        <v>125</v>
+      </c>
+      <c r="H3371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3372">
+      <c r="A3372" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B3372" t="n">
+        <v>36772</v>
+      </c>
+      <c r="C3372" t="n">
+        <v>26315</v>
+      </c>
+      <c r="D3372" t="n">
+        <v>1960</v>
+      </c>
+      <c r="E3372" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3372" t="n">
+        <v>735</v>
+      </c>
+      <c r="G3372" t="n">
+        <v>423</v>
+      </c>
+      <c r="H3372" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3373">
+      <c r="A3373" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B3373" t="n">
+        <v>17504</v>
+      </c>
+      <c r="C3373" t="n">
+        <v>13335</v>
+      </c>
+      <c r="D3373" t="n">
+        <v>276</v>
+      </c>
+      <c r="E3373" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3373" t="n">
+        <v>499</v>
+      </c>
+      <c r="G3373" t="n">
+        <v>391</v>
+      </c>
+      <c r="H3373" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3374">
+      <c r="A3374" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3374" t="n">
+        <v>1077</v>
+      </c>
+      <c r="C3374" t="n">
+        <v>763</v>
+      </c>
+      <c r="D3374" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3374" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3374" t="n">
+        <v>14</v>
+      </c>
+      <c r="G3374" t="n">
+        <v>26</v>
+      </c>
+      <c r="H3374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3375">
+      <c r="A3375" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B3375" t="n">
+        <v>8675</v>
+      </c>
+      <c r="C3375" t="n">
+        <v>5318</v>
+      </c>
+      <c r="D3375" t="n">
+        <v>138</v>
+      </c>
+      <c r="E3375" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3375" t="n">
+        <v>246</v>
+      </c>
+      <c r="G3375" t="n">
+        <v>63</v>
+      </c>
+      <c r="H3375" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3376">
+      <c r="A3376" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B3376" t="n">
+        <v>2847</v>
+      </c>
+      <c r="C3376" t="n">
+        <v>2068</v>
+      </c>
+      <c r="D3376" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3376" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3376" t="n">
+        <v>66</v>
+      </c>
+      <c r="G3376" t="n">
+        <v>23</v>
+      </c>
+      <c r="H3376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3377">
+      <c r="A3377" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B3377" t="n">
+        <v>25317</v>
+      </c>
+      <c r="C3377" t="n">
+        <v>10527</v>
+      </c>
+      <c r="D3377" t="n">
+        <v>401</v>
+      </c>
+      <c r="E3377" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3377" t="n">
+        <v>1843</v>
+      </c>
+      <c r="G3377" t="n">
+        <v>680</v>
+      </c>
+      <c r="H3377" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3378">
+      <c r="A3378" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B3378" t="n">
+        <v>5622</v>
+      </c>
+      <c r="C3378" t="n">
+        <v>3341</v>
+      </c>
+      <c r="D3378" t="n">
+        <v>27</v>
+      </c>
+      <c r="E3378" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3378" t="n">
+        <v>193</v>
+      </c>
+      <c r="G3378" t="n">
+        <v>167</v>
+      </c>
+      <c r="H3378" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3379">
+      <c r="A3379" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B3379" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C3379" t="n">
+        <v>836</v>
+      </c>
+      <c r="D3379" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3379" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3379" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3379" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3380">
+      <c r="A3380" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B3380" t="n">
+        <v>15284</v>
+      </c>
+      <c r="C3380" t="n">
+        <v>11579</v>
+      </c>
+      <c r="D3380" t="n">
+        <v>617</v>
+      </c>
+      <c r="E3380" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3380" t="n">
+        <v>354</v>
+      </c>
+      <c r="G3380" t="n">
+        <v>168</v>
+      </c>
+      <c r="H3380" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3381">
+      <c r="A3381" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B3381" t="n">
+        <v>211987</v>
+      </c>
+      <c r="C3381" t="n">
+        <v>115262</v>
+      </c>
+      <c r="D3381" t="n">
+        <v>9026</v>
+      </c>
+      <c r="E3381" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3381" t="n">
+        <v>5368</v>
+      </c>
+      <c r="G3381" t="n">
+        <v>3522</v>
+      </c>
+      <c r="H3381" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3382">
+      <c r="A3382" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B3382" t="n">
+        <v>1390</v>
+      </c>
+      <c r="C3382" t="n">
+        <v>734</v>
+      </c>
+      <c r="D3382" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3382" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3382" t="n">
+        <v>24</v>
+      </c>
+      <c r="G3382" t="n">
+        <v>46</v>
+      </c>
+      <c r="H3382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3383">
+      <c r="A3383" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B3383" t="n">
+        <v>80</v>
+      </c>
+      <c r="C3383" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3383" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3383" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3383" t="n">
+        <v>18</v>
+      </c>
+      <c r="G3383" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3384">
+      <c r="A3384" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B3384" t="n">
+        <v>197</v>
+      </c>
+      <c r="C3384" t="n">
+        <v>133</v>
+      </c>
+      <c r="D3384" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3384" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3384" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3384" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3385">
+      <c r="A3385" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B3385" t="n">
+        <v>625</v>
+      </c>
+      <c r="C3385" t="n">
+        <v>243</v>
+      </c>
+      <c r="D3385" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3385" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3385" t="n">
+        <v>35</v>
+      </c>
+      <c r="G3385" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3386">
+      <c r="A3386" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B3386" t="n">
+        <v>9526</v>
+      </c>
+      <c r="C3386" t="n">
+        <v>6486</v>
+      </c>
+      <c r="D3386" t="n">
+        <v>38</v>
+      </c>
+      <c r="E3386" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3386" t="n">
+        <v>456</v>
+      </c>
+      <c r="G3386" t="n">
+        <v>262</v>
+      </c>
+      <c r="H3386" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3387">
+      <c r="A3387" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B3387" t="n">
+        <v>802</v>
+      </c>
+      <c r="C3387" t="n">
+        <v>331</v>
+      </c>
+      <c r="D3387" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3387" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3387" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3387" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3388">
+      <c r="A3388" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B3388" t="n">
+        <v>6491</v>
+      </c>
+      <c r="C3388" t="n">
+        <v>4494</v>
+      </c>
+      <c r="D3388" t="n">
+        <v>169</v>
+      </c>
+      <c r="E3388" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3388" t="n">
+        <v>208</v>
+      </c>
+      <c r="G3388" t="n">
+        <v>86</v>
+      </c>
+      <c r="H3388" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3389">
+      <c r="A3389" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B3389" t="n">
+        <v>20688</v>
+      </c>
+      <c r="C3389" t="n">
+        <v>16278</v>
+      </c>
+      <c r="D3389" t="n">
+        <v>461</v>
+      </c>
+      <c r="E3389" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3389" t="n">
+        <v>524</v>
+      </c>
+      <c r="G3389" t="n">
+        <v>350</v>
+      </c>
+      <c r="H3389" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3390">
+      <c r="A3390" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B3390" t="n">
+        <v>125</v>
+      </c>
+      <c r="C3390" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3390" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3390" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3390" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3390" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3391">
+      <c r="A3391" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B3391" t="n">
+        <v>114978</v>
+      </c>
+      <c r="C3391" t="n">
+        <v>66571</v>
+      </c>
+      <c r="D3391" t="n">
+        <v>1571</v>
+      </c>
+      <c r="E3391" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3391" t="n">
+        <v>3827</v>
+      </c>
+      <c r="G3391" t="n">
+        <v>3793</v>
+      </c>
+      <c r="H3391" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3392">
+      <c r="A3392" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B3392" t="n">
+        <v>25733</v>
+      </c>
+      <c r="C3392" t="n">
+        <v>14781</v>
+      </c>
+      <c r="D3392" t="n">
+        <v>306</v>
+      </c>
+      <c r="E3392" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3392" t="n">
+        <v>1831</v>
+      </c>
+      <c r="G3392" t="n">
+        <v>2078</v>
+      </c>
+      <c r="H3392" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3393">
+      <c r="A3393" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B3393" t="n">
+        <v>1680</v>
+      </c>
+      <c r="C3393" t="n">
+        <v>1219</v>
+      </c>
+      <c r="D3393" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3393" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3393" t="n">
+        <v>112</v>
+      </c>
+      <c r="G3393" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3394">
+      <c r="A3394" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B3394" t="n">
+        <v>3161</v>
+      </c>
+      <c r="C3394" t="n">
+        <v>2586</v>
+      </c>
+      <c r="D3394" t="n">
+        <v>42</v>
+      </c>
+      <c r="E3394" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3394" t="n">
+        <v>37</v>
+      </c>
+      <c r="G3394" t="n">
+        <v>62</v>
+      </c>
+      <c r="H3394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3395">
+      <c r="A3395" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B3395" t="n">
+        <v>28636</v>
+      </c>
+      <c r="C3395" t="n">
+        <v>19109</v>
+      </c>
+      <c r="D3395" t="n">
+        <v>809</v>
+      </c>
+      <c r="E3395" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3395" t="n">
+        <v>929</v>
+      </c>
+      <c r="G3395" t="n">
+        <v>348</v>
+      </c>
+      <c r="H3395" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3396">
+      <c r="A3396" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B3396" t="n">
+        <v>22987</v>
+      </c>
+      <c r="C3396" t="n">
+        <v>15235</v>
+      </c>
+      <c r="D3396" t="n">
+        <v>779</v>
+      </c>
+      <c r="E3396" t="inlineStr">
+        <is>
+          <t>08-07-2020</t>
+        </is>
+      </c>
+      <c r="F3396" t="n">
+        <v>861</v>
+      </c>
+      <c r="G3396" t="n">
+        <v>524</v>
+      </c>
+      <c r="H3396" t="n">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Corona_database_extract.xlsx
+++ b/Corona_database_extract.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3396"/>
+  <dimension ref="A1:H3466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97298,6 +97298,2106 @@
         <v>22</v>
       </c>
     </row>
+    <row r="3397">
+      <c r="A3397" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B3397" t="n">
+        <v>194</v>
+      </c>
+      <c r="C3397" t="n">
+        <v>142</v>
+      </c>
+      <c r="D3397" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3397" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3397" t="n">
+        <v>31</v>
+      </c>
+      <c r="G3397" t="n">
+        <v>49</v>
+      </c>
+      <c r="H3397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3398">
+      <c r="A3398" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B3398" t="n">
+        <v>40646</v>
+      </c>
+      <c r="C3398" t="n">
+        <v>20298</v>
+      </c>
+      <c r="D3398" t="n">
+        <v>534</v>
+      </c>
+      <c r="E3398" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3398" t="n">
+        <v>13411</v>
+      </c>
+      <c r="G3398" t="n">
+        <v>5905</v>
+      </c>
+      <c r="H3398" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3399">
+      <c r="A3399" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3399" t="n">
+        <v>609</v>
+      </c>
+      <c r="C3399" t="n">
+        <v>175</v>
+      </c>
+      <c r="D3399" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3399" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3399" t="n">
+        <v>268</v>
+      </c>
+      <c r="G3399" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3400">
+      <c r="A3400" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B3400" t="n">
+        <v>20646</v>
+      </c>
+      <c r="C3400" t="n">
+        <v>14105</v>
+      </c>
+      <c r="D3400" t="n">
+        <v>51</v>
+      </c>
+      <c r="E3400" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3400" t="n">
+        <v>5110</v>
+      </c>
+      <c r="G3400" t="n">
+        <v>4955</v>
+      </c>
+      <c r="H3400" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3401">
+      <c r="A3401" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B3401" t="n">
+        <v>23589</v>
+      </c>
+      <c r="C3401" t="n">
+        <v>14621</v>
+      </c>
+      <c r="D3401" t="n">
+        <v>201</v>
+      </c>
+      <c r="E3401" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3401" t="n">
+        <v>8216</v>
+      </c>
+      <c r="G3401" t="n">
+        <v>3936</v>
+      </c>
+      <c r="H3401" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3402">
+      <c r="A3402" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B3402" t="n">
+        <v>660</v>
+      </c>
+      <c r="C3402" t="n">
+        <v>480</v>
+      </c>
+      <c r="D3402" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3402" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3402" t="n">
+        <v>105</v>
+      </c>
+      <c r="G3402" t="n">
+        <v>67</v>
+      </c>
+      <c r="H3402" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3403">
+      <c r="A3403" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B3403" t="n">
+        <v>4964</v>
+      </c>
+      <c r="C3403" t="n">
+        <v>3512</v>
+      </c>
+      <c r="D3403" t="n">
+        <v>23</v>
+      </c>
+      <c r="E3403" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3403" t="n">
+        <v>1067</v>
+      </c>
+      <c r="G3403" t="n">
+        <v>442</v>
+      </c>
+      <c r="H3403" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3404">
+      <c r="A3404" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B3404" t="n">
+        <v>585</v>
+      </c>
+      <c r="C3404" t="n">
+        <v>401</v>
+      </c>
+      <c r="D3404" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3404" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3404" t="n">
+        <v>114</v>
+      </c>
+      <c r="G3404" t="n">
+        <v>175</v>
+      </c>
+      <c r="H3404" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3405">
+      <c r="A3405" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B3405" t="n">
+        <v>120107</v>
+      </c>
+      <c r="C3405" t="n">
+        <v>99301</v>
+      </c>
+      <c r="D3405" t="n">
+        <v>3571</v>
+      </c>
+      <c r="E3405" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3405" t="n">
+        <v>9186</v>
+      </c>
+      <c r="G3405" t="n">
+        <v>11609</v>
+      </c>
+      <c r="H3405" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3406">
+      <c r="A3406" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B3406" t="n">
+        <v>3304</v>
+      </c>
+      <c r="C3406" t="n">
+        <v>1946</v>
+      </c>
+      <c r="D3406" t="n">
+        <v>21</v>
+      </c>
+      <c r="E3406" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3406" t="n">
+        <v>936</v>
+      </c>
+      <c r="G3406" t="n">
+        <v>518</v>
+      </c>
+      <c r="H3406" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3407">
+      <c r="A3407" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B3407" t="n">
+        <v>46430</v>
+      </c>
+      <c r="C3407" t="n">
+        <v>32973</v>
+      </c>
+      <c r="D3407" t="n">
+        <v>2106</v>
+      </c>
+      <c r="E3407" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3407" t="n">
+        <v>5489</v>
+      </c>
+      <c r="G3407" t="n">
+        <v>4324</v>
+      </c>
+      <c r="H3407" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3408">
+      <c r="A3408" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B3408" t="n">
+        <v>24797</v>
+      </c>
+      <c r="C3408" t="n">
+        <v>18718</v>
+      </c>
+      <c r="D3408" t="n">
+        <v>327</v>
+      </c>
+      <c r="E3408" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3408" t="n">
+        <v>4215</v>
+      </c>
+      <c r="G3408" t="n">
+        <v>3324</v>
+      </c>
+      <c r="H3408" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3409">
+      <c r="A3409" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3409" t="n">
+        <v>1417</v>
+      </c>
+      <c r="C3409" t="n">
+        <v>1024</v>
+      </c>
+      <c r="D3409" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3409" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3409" t="n">
+        <v>235</v>
+      </c>
+      <c r="G3409" t="n">
+        <v>116</v>
+      </c>
+      <c r="H3409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3410">
+      <c r="A3410" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B3410" t="n">
+        <v>12757</v>
+      </c>
+      <c r="C3410" t="n">
+        <v>6558</v>
+      </c>
+      <c r="D3410" t="n">
+        <v>231</v>
+      </c>
+      <c r="E3410" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3410" t="n">
+        <v>2601</v>
+      </c>
+      <c r="G3410" t="n">
+        <v>663</v>
+      </c>
+      <c r="H3410" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B3411" t="n">
+        <v>4921</v>
+      </c>
+      <c r="C3411" t="n">
+        <v>2570</v>
+      </c>
+      <c r="D3411" t="n">
+        <v>46</v>
+      </c>
+      <c r="E3411" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3411" t="n">
+        <v>1308</v>
+      </c>
+      <c r="G3411" t="n">
+        <v>327</v>
+      </c>
+      <c r="H3411" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B3412" t="n">
+        <v>55115</v>
+      </c>
+      <c r="C3412" t="n">
+        <v>20757</v>
+      </c>
+      <c r="D3412" t="n">
+        <v>1147</v>
+      </c>
+      <c r="E3412" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3412" t="n">
+        <v>18899</v>
+      </c>
+      <c r="G3412" t="n">
+        <v>6041</v>
+      </c>
+      <c r="H3412" t="n">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B3413" t="n">
+        <v>11066</v>
+      </c>
+      <c r="C3413" t="n">
+        <v>4995</v>
+      </c>
+      <c r="D3413" t="n">
+        <v>38</v>
+      </c>
+      <c r="E3413" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3413" t="n">
+        <v>3628</v>
+      </c>
+      <c r="G3413" t="n">
+        <v>1032</v>
+      </c>
+      <c r="H3413" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B3414" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C3414" t="n">
+        <v>973</v>
+      </c>
+      <c r="D3414" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3414" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3414" t="n">
+        <v>74</v>
+      </c>
+      <c r="G3414" t="n">
+        <v>45</v>
+      </c>
+      <c r="H3414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B3415" t="n">
+        <v>21081</v>
+      </c>
+      <c r="C3415" t="n">
+        <v>14514</v>
+      </c>
+      <c r="D3415" t="n">
+        <v>697</v>
+      </c>
+      <c r="E3415" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3415" t="n">
+        <v>3880</v>
+      </c>
+      <c r="G3415" t="n">
+        <v>1835</v>
+      </c>
+      <c r="H3415" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B3416" t="n">
+        <v>292589</v>
+      </c>
+      <c r="C3416" t="n">
+        <v>160357</v>
+      </c>
+      <c r="D3416" t="n">
+        <v>11452</v>
+      </c>
+      <c r="E3416" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3416" t="n">
+        <v>45989</v>
+      </c>
+      <c r="G3416" t="n">
+        <v>23372</v>
+      </c>
+      <c r="H3416" t="n">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B3417" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C3417" t="n">
+        <v>1163</v>
+      </c>
+      <c r="D3417" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3417" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3417" t="n">
+        <v>207</v>
+      </c>
+      <c r="G3417" t="n">
+        <v>320</v>
+      </c>
+      <c r="H3417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B3418" t="n">
+        <v>403</v>
+      </c>
+      <c r="C3418" t="n">
+        <v>66</v>
+      </c>
+      <c r="D3418" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3418" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3418" t="n">
+        <v>196</v>
+      </c>
+      <c r="G3418" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B3419" t="n">
+        <v>282</v>
+      </c>
+      <c r="C3419" t="n">
+        <v>160</v>
+      </c>
+      <c r="D3419" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3419" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3419" t="n">
+        <v>55</v>
+      </c>
+      <c r="G3419" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B3420" t="n">
+        <v>956</v>
+      </c>
+      <c r="C3420" t="n">
+        <v>405</v>
+      </c>
+      <c r="D3420" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3420" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3420" t="n">
+        <v>208</v>
+      </c>
+      <c r="G3420" t="n">
+        <v>92</v>
+      </c>
+      <c r="H3420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3421">
+      <c r="A3421" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B3421" t="n">
+        <v>16110</v>
+      </c>
+      <c r="C3421" t="n">
+        <v>11330</v>
+      </c>
+      <c r="D3421" t="n">
+        <v>83</v>
+      </c>
+      <c r="E3421" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3421" t="n">
+        <v>3584</v>
+      </c>
+      <c r="G3421" t="n">
+        <v>2970</v>
+      </c>
+      <c r="H3421" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B3422" t="n">
+        <v>1832</v>
+      </c>
+      <c r="C3422" t="n">
+        <v>1014</v>
+      </c>
+      <c r="D3422" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3422" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3422" t="n">
+        <v>495</v>
+      </c>
+      <c r="G3422" t="n">
+        <v>324</v>
+      </c>
+      <c r="H3422" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B3423" t="n">
+        <v>9442</v>
+      </c>
+      <c r="C3423" t="n">
+        <v>6373</v>
+      </c>
+      <c r="D3423" t="n">
+        <v>239</v>
+      </c>
+      <c r="E3423" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3423" t="n">
+        <v>1855</v>
+      </c>
+      <c r="G3423" t="n">
+        <v>1333</v>
+      </c>
+      <c r="H3423" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B3424" t="n">
+        <v>27789</v>
+      </c>
+      <c r="C3424" t="n">
+        <v>20626</v>
+      </c>
+      <c r="D3424" t="n">
+        <v>546</v>
+      </c>
+      <c r="E3424" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3424" t="n">
+        <v>4041</v>
+      </c>
+      <c r="G3424" t="n">
+        <v>2757</v>
+      </c>
+      <c r="H3424" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B3425" t="n">
+        <v>266</v>
+      </c>
+      <c r="C3425" t="n">
+        <v>90</v>
+      </c>
+      <c r="D3425" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3425" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3425" t="n">
+        <v>115</v>
+      </c>
+      <c r="G3425" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B3426" t="n">
+        <v>160907</v>
+      </c>
+      <c r="C3426" t="n">
+        <v>110807</v>
+      </c>
+      <c r="D3426" t="n">
+        <v>2315</v>
+      </c>
+      <c r="E3426" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3426" t="n">
+        <v>26681</v>
+      </c>
+      <c r="G3426" t="n">
+        <v>24892</v>
+      </c>
+      <c r="H3426" t="n">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B3427" t="n">
+        <v>42496</v>
+      </c>
+      <c r="C3427" t="n">
+        <v>28705</v>
+      </c>
+      <c r="D3427" t="n">
+        <v>403</v>
+      </c>
+      <c r="E3427" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3427" t="n">
+        <v>9094</v>
+      </c>
+      <c r="G3427" t="n">
+        <v>7786</v>
+      </c>
+      <c r="H3427" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B3428" t="n">
+        <v>2366</v>
+      </c>
+      <c r="C3428" t="n">
+        <v>1684</v>
+      </c>
+      <c r="D3428" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3428" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3428" t="n">
+        <v>417</v>
+      </c>
+      <c r="G3428" t="n">
+        <v>309</v>
+      </c>
+      <c r="H3428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B3429" t="n">
+        <v>4102</v>
+      </c>
+      <c r="C3429" t="n">
+        <v>3021</v>
+      </c>
+      <c r="D3429" t="n">
+        <v>51</v>
+      </c>
+      <c r="E3429" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3429" t="n">
+        <v>685</v>
+      </c>
+      <c r="G3429" t="n">
+        <v>303</v>
+      </c>
+      <c r="H3429" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B3430" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C3430" t="n">
+        <v>27634</v>
+      </c>
+      <c r="D3430" t="n">
+        <v>1084</v>
+      </c>
+      <c r="E3430" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3430" t="n">
+        <v>10071</v>
+      </c>
+      <c r="G3430" t="n">
+        <v>4945</v>
+      </c>
+      <c r="H3430" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B3431" t="n">
+        <v>38011</v>
+      </c>
+      <c r="C3431" t="n">
+        <v>22253</v>
+      </c>
+      <c r="D3431" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E3431" t="inlineStr">
+        <is>
+          <t>18-07-2020</t>
+        </is>
+      </c>
+      <c r="F3431" t="n">
+        <v>9558</v>
+      </c>
+      <c r="G3431" t="n">
+        <v>4294</v>
+      </c>
+      <c r="H3431" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" t="inlineStr">
+        <is>
+          <t>Andaman and Nicobar Islands</t>
+        </is>
+      </c>
+      <c r="B3432" t="n">
+        <v>259</v>
+      </c>
+      <c r="C3432" t="n">
+        <v>174</v>
+      </c>
+      <c r="D3432" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3432" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3432" t="n">
+        <v>65</v>
+      </c>
+      <c r="G3432" t="n">
+        <v>32</v>
+      </c>
+      <c r="H3432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B3433" t="n">
+        <v>80858</v>
+      </c>
+      <c r="C3433" t="n">
+        <v>39935</v>
+      </c>
+      <c r="D3433" t="n">
+        <v>933</v>
+      </c>
+      <c r="E3433" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3433" t="n">
+        <v>40212</v>
+      </c>
+      <c r="G3433" t="n">
+        <v>19637</v>
+      </c>
+      <c r="H3433" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" t="inlineStr">
+        <is>
+          <t>Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3434" t="n">
+        <v>1056</v>
+      </c>
+      <c r="C3434" t="n">
+        <v>392</v>
+      </c>
+      <c r="D3434" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3434" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3434" t="n">
+        <v>447</v>
+      </c>
+      <c r="G3434" t="n">
+        <v>217</v>
+      </c>
+      <c r="H3434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" t="inlineStr">
+        <is>
+          <t>Assam</t>
+        </is>
+      </c>
+      <c r="B3435" t="n">
+        <v>29921</v>
+      </c>
+      <c r="C3435" t="n">
+        <v>21761</v>
+      </c>
+      <c r="D3435" t="n">
+        <v>76</v>
+      </c>
+      <c r="E3435" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3435" t="n">
+        <v>9275</v>
+      </c>
+      <c r="G3435" t="n">
+        <v>7656</v>
+      </c>
+      <c r="H3435" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="B3436" t="n">
+        <v>33926</v>
+      </c>
+      <c r="C3436" t="n">
+        <v>22343</v>
+      </c>
+      <c r="D3436" t="n">
+        <v>220</v>
+      </c>
+      <c r="E3436" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3436" t="n">
+        <v>10337</v>
+      </c>
+      <c r="G3436" t="n">
+        <v>7722</v>
+      </c>
+      <c r="H3436" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" t="inlineStr">
+        <is>
+          <t>Chandigarh</t>
+        </is>
+      </c>
+      <c r="B3437" t="n">
+        <v>823</v>
+      </c>
+      <c r="C3437" t="n">
+        <v>535</v>
+      </c>
+      <c r="D3437" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3437" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3437" t="n">
+        <v>163</v>
+      </c>
+      <c r="G3437" t="n">
+        <v>55</v>
+      </c>
+      <c r="H3437" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" t="inlineStr">
+        <is>
+          <t>Chhattisgarh</t>
+        </is>
+      </c>
+      <c r="B3438" t="n">
+        <v>6731</v>
+      </c>
+      <c r="C3438" t="n">
+        <v>4567</v>
+      </c>
+      <c r="D3438" t="n">
+        <v>36</v>
+      </c>
+      <c r="E3438" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3438" t="n">
+        <v>1767</v>
+      </c>
+      <c r="G3438" t="n">
+        <v>1055</v>
+      </c>
+      <c r="H3438" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" t="inlineStr">
+        <is>
+          <t>Dadra and Nagar Haveli and Daman and Diu</t>
+        </is>
+      </c>
+      <c r="B3439" t="n">
+        <v>815</v>
+      </c>
+      <c r="C3439" t="n">
+        <v>512</v>
+      </c>
+      <c r="D3439" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3439" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3439" t="n">
+        <v>230</v>
+      </c>
+      <c r="G3439" t="n">
+        <v>111</v>
+      </c>
+      <c r="H3439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="B3440" t="n">
+        <v>128389</v>
+      </c>
+      <c r="C3440" t="n">
+        <v>110931</v>
+      </c>
+      <c r="D3440" t="n">
+        <v>3777</v>
+      </c>
+      <c r="E3440" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3440" t="n">
+        <v>8282</v>
+      </c>
+      <c r="G3440" t="n">
+        <v>11630</v>
+      </c>
+      <c r="H3440" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" t="inlineStr">
+        <is>
+          <t>Goa</t>
+        </is>
+      </c>
+      <c r="B3441" t="n">
+        <v>4540</v>
+      </c>
+      <c r="C3441" t="n">
+        <v>2865</v>
+      </c>
+      <c r="D3441" t="n">
+        <v>29</v>
+      </c>
+      <c r="E3441" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3441" t="n">
+        <v>1236</v>
+      </c>
+      <c r="G3441" t="n">
+        <v>919</v>
+      </c>
+      <c r="H3441" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B3442" t="n">
+        <v>53545</v>
+      </c>
+      <c r="C3442" t="n">
+        <v>38849</v>
+      </c>
+      <c r="D3442" t="n">
+        <v>2278</v>
+      </c>
+      <c r="E3442" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3442" t="n">
+        <v>7115</v>
+      </c>
+      <c r="G3442" t="n">
+        <v>5876</v>
+      </c>
+      <c r="H3442" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B3443" t="n">
+        <v>29755</v>
+      </c>
+      <c r="C3443" t="n">
+        <v>22953</v>
+      </c>
+      <c r="D3443" t="n">
+        <v>382</v>
+      </c>
+      <c r="E3443" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3443" t="n">
+        <v>4958</v>
+      </c>
+      <c r="G3443" t="n">
+        <v>4235</v>
+      </c>
+      <c r="H3443" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" t="inlineStr">
+        <is>
+          <t>Himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="B3444" t="n">
+        <v>1954</v>
+      </c>
+      <c r="C3444" t="n">
+        <v>1145</v>
+      </c>
+      <c r="D3444" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3444" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3444" t="n">
+        <v>537</v>
+      </c>
+      <c r="G3444" t="n">
+        <v>121</v>
+      </c>
+      <c r="H3444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="B3445" t="n">
+        <v>16782</v>
+      </c>
+      <c r="C3445" t="n">
+        <v>9217</v>
+      </c>
+      <c r="D3445" t="n">
+        <v>296</v>
+      </c>
+      <c r="E3445" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3445" t="n">
+        <v>4025</v>
+      </c>
+      <c r="G3445" t="n">
+        <v>2659</v>
+      </c>
+      <c r="H3445" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="B3446" t="n">
+        <v>7493</v>
+      </c>
+      <c r="C3446" t="n">
+        <v>3307</v>
+      </c>
+      <c r="D3446" t="n">
+        <v>70</v>
+      </c>
+      <c r="E3446" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3446" t="n">
+        <v>2572</v>
+      </c>
+      <c r="G3446" t="n">
+        <v>737</v>
+      </c>
+      <c r="H3446" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3447">
+      <c r="A3447" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B3447" t="n">
+        <v>85870</v>
+      </c>
+      <c r="C3447" t="n">
+        <v>31347</v>
+      </c>
+      <c r="D3447" t="n">
+        <v>1724</v>
+      </c>
+      <c r="E3447" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3447" t="n">
+        <v>30755</v>
+      </c>
+      <c r="G3447" t="n">
+        <v>10590</v>
+      </c>
+      <c r="H3447" t="n">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3448">
+      <c r="A3448" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="B3448" t="n">
+        <v>16995</v>
+      </c>
+      <c r="C3448" t="n">
+        <v>7562</v>
+      </c>
+      <c r="D3448" t="n">
+        <v>54</v>
+      </c>
+      <c r="E3448" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3448" t="n">
+        <v>5929</v>
+      </c>
+      <c r="G3448" t="n">
+        <v>2567</v>
+      </c>
+      <c r="H3448" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3449">
+      <c r="A3449" t="inlineStr">
+        <is>
+          <t>Ladakh</t>
+        </is>
+      </c>
+      <c r="B3449" t="n">
+        <v>1246</v>
+      </c>
+      <c r="C3449" t="n">
+        <v>1035</v>
+      </c>
+      <c r="D3449" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3449" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3449" t="n">
+        <v>95</v>
+      </c>
+      <c r="G3449" t="n">
+        <v>62</v>
+      </c>
+      <c r="H3449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3450">
+      <c r="A3450" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B3450" t="n">
+        <v>26210</v>
+      </c>
+      <c r="C3450" t="n">
+        <v>17866</v>
+      </c>
+      <c r="D3450" t="n">
+        <v>791</v>
+      </c>
+      <c r="E3450" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3450" t="n">
+        <v>5129</v>
+      </c>
+      <c r="G3450" t="n">
+        <v>3352</v>
+      </c>
+      <c r="H3450" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3451">
+      <c r="A3451" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B3451" t="n">
+        <v>357117</v>
+      </c>
+      <c r="C3451" t="n">
+        <v>199967</v>
+      </c>
+      <c r="D3451" t="n">
+        <v>13132</v>
+      </c>
+      <c r="E3451" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3451" t="n">
+        <v>64528</v>
+      </c>
+      <c r="G3451" t="n">
+        <v>39610</v>
+      </c>
+      <c r="H3451" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="3452">
+      <c r="A3452" t="inlineStr">
+        <is>
+          <t>Manipur</t>
+        </is>
+      </c>
+      <c r="B3452" t="n">
+        <v>2146</v>
+      </c>
+      <c r="C3452" t="n">
+        <v>1491</v>
+      </c>
+      <c r="D3452" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3452" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3452" t="n">
+        <v>346</v>
+      </c>
+      <c r="G3452" t="n">
+        <v>328</v>
+      </c>
+      <c r="H3452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3453">
+      <c r="A3453" t="inlineStr">
+        <is>
+          <t>Meghalaya</t>
+        </is>
+      </c>
+      <c r="B3453" t="n">
+        <v>588</v>
+      </c>
+      <c r="C3453" t="n">
+        <v>87</v>
+      </c>
+      <c r="D3453" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3453" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3453" t="n">
+        <v>185</v>
+      </c>
+      <c r="G3453" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3453" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3454">
+      <c r="A3454" t="inlineStr">
+        <is>
+          <t>Mizoram</t>
+        </is>
+      </c>
+      <c r="B3454" t="n">
+        <v>361</v>
+      </c>
+      <c r="C3454" t="n">
+        <v>183</v>
+      </c>
+      <c r="D3454" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3454" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3454" t="n">
+        <v>79</v>
+      </c>
+      <c r="G3454" t="n">
+        <v>23</v>
+      </c>
+      <c r="H3454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3455">
+      <c r="A3455" t="inlineStr">
+        <is>
+          <t>Nagaland</t>
+        </is>
+      </c>
+      <c r="B3455" t="n">
+        <v>1239</v>
+      </c>
+      <c r="C3455" t="n">
+        <v>537</v>
+      </c>
+      <c r="D3455" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3455" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3455" t="n">
+        <v>283</v>
+      </c>
+      <c r="G3455" t="n">
+        <v>132</v>
+      </c>
+      <c r="H3455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3456">
+      <c r="A3456" t="inlineStr">
+        <is>
+          <t>Odisha</t>
+        </is>
+      </c>
+      <c r="B3456" t="n">
+        <v>22693</v>
+      </c>
+      <c r="C3456" t="n">
+        <v>15201</v>
+      </c>
+      <c r="D3456" t="n">
+        <v>120</v>
+      </c>
+      <c r="E3456" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3456" t="n">
+        <v>6583</v>
+      </c>
+      <c r="G3456" t="n">
+        <v>3871</v>
+      </c>
+      <c r="H3456" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3457">
+      <c r="A3457" t="inlineStr">
+        <is>
+          <t>Puducherry</t>
+        </is>
+      </c>
+      <c r="B3457" t="n">
+        <v>2515</v>
+      </c>
+      <c r="C3457" t="n">
+        <v>1483</v>
+      </c>
+      <c r="D3457" t="n">
+        <v>35</v>
+      </c>
+      <c r="E3457" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3457" t="n">
+        <v>683</v>
+      </c>
+      <c r="G3457" t="n">
+        <v>469</v>
+      </c>
+      <c r="H3457" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3458">
+      <c r="A3458" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="B3458" t="n">
+        <v>12216</v>
+      </c>
+      <c r="C3458" t="n">
+        <v>8096</v>
+      </c>
+      <c r="D3458" t="n">
+        <v>282</v>
+      </c>
+      <c r="E3458" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3458" t="n">
+        <v>2774</v>
+      </c>
+      <c r="G3458" t="n">
+        <v>1723</v>
+      </c>
+      <c r="H3458" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3459">
+      <c r="A3459" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B3459" t="n">
+        <v>34178</v>
+      </c>
+      <c r="C3459" t="n">
+        <v>24547</v>
+      </c>
+      <c r="D3459" t="n">
+        <v>602</v>
+      </c>
+      <c r="E3459" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3459" t="n">
+        <v>6389</v>
+      </c>
+      <c r="G3459" t="n">
+        <v>3921</v>
+      </c>
+      <c r="H3459" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3460">
+      <c r="A3460" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="B3460" t="n">
+        <v>477</v>
+      </c>
+      <c r="C3460" t="n">
+        <v>142</v>
+      </c>
+      <c r="D3460" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3460" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3460" t="n">
+        <v>211</v>
+      </c>
+      <c r="G3460" t="n">
+        <v>52</v>
+      </c>
+      <c r="H3460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3461">
+      <c r="A3461" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B3461" t="n">
+        <v>199749</v>
+      </c>
+      <c r="C3461" t="n">
+        <v>143297</v>
+      </c>
+      <c r="D3461" t="n">
+        <v>3320</v>
+      </c>
+      <c r="E3461" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3461" t="n">
+        <v>38842</v>
+      </c>
+      <c r="G3461" t="n">
+        <v>32490</v>
+      </c>
+      <c r="H3461" t="n">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="3462">
+      <c r="A3462" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B3462" t="n">
+        <v>52466</v>
+      </c>
+      <c r="C3462" t="n">
+        <v>40334</v>
+      </c>
+      <c r="D3462" t="n">
+        <v>455</v>
+      </c>
+      <c r="E3462" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3462" t="n">
+        <v>9970</v>
+      </c>
+      <c r="G3462" t="n">
+        <v>11629</v>
+      </c>
+      <c r="H3462" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3463">
+      <c r="A3463" t="inlineStr">
+        <is>
+          <t>Tripura</t>
+        </is>
+      </c>
+      <c r="B3463" t="n">
+        <v>3759</v>
+      </c>
+      <c r="C3463" t="n">
+        <v>2131</v>
+      </c>
+      <c r="D3463" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3463" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3463" t="n">
+        <v>1393</v>
+      </c>
+      <c r="G3463" t="n">
+        <v>447</v>
+      </c>
+      <c r="H3463" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3464">
+      <c r="A3464" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="B3464" t="n">
+        <v>5445</v>
+      </c>
+      <c r="C3464" t="n">
+        <v>3399</v>
+      </c>
+      <c r="D3464" t="n">
+        <v>60</v>
+      </c>
+      <c r="E3464" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3464" t="n">
+        <v>1343</v>
+      </c>
+      <c r="G3464" t="n">
+        <v>378</v>
+      </c>
+      <c r="H3464" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3465">
+      <c r="A3465" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B3465" t="n">
+        <v>60771</v>
+      </c>
+      <c r="C3465" t="n">
+        <v>37712</v>
+      </c>
+      <c r="D3465" t="n">
+        <v>1348</v>
+      </c>
+      <c r="E3465" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3465" t="n">
+        <v>15608</v>
+      </c>
+      <c r="G3465" t="n">
+        <v>10078</v>
+      </c>
+      <c r="H3465" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3466">
+      <c r="A3466" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="B3466" t="n">
+        <v>53973</v>
+      </c>
+      <c r="C3466" t="n">
+        <v>33529</v>
+      </c>
+      <c r="D3466" t="n">
+        <v>1290</v>
+      </c>
+      <c r="E3466" t="inlineStr">
+        <is>
+          <t>25-07-2020</t>
+        </is>
+      </c>
+      <c r="F3466" t="n">
+        <v>15962</v>
+      </c>
+      <c r="G3466" t="n">
+        <v>11276</v>
+      </c>
+      <c r="H3466" t="n">
+        <v>241</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
